--- a/DatasetForML_Wang2023_Hardness_CompilationAndOriginal.xlsx
+++ b/DatasetForML_Wang2023_Hardness_CompilationAndOriginal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/PycharmProjects/ULTERA-contribute-Detor2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC664B7-8A74-DF4A-B84E-445FA3C80EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA7AEA-1DC3-294E-B242-28E497A06987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1425,9 +1425,6 @@
   </si>
   <si>
     <t>10.1103/PhysRevLett.87.156401</t>
-  </si>
-  <si>
-    <t>10.1103/PhysRevLett.65.353</t>
   </si>
   <si>
     <t>10.1038/s41524-019-0151-x</t>
@@ -1583,6 +1580,9 @@
   </si>
   <si>
     <t>All data from Supplementary of 10.1016/j.ijrmhm.2023.106246</t>
+  </si>
+  <si>
+    <t>10.1007/s11837-013-0776-z</t>
   </si>
 </sst>
 </file>
@@ -2265,6 +2265,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2316,34 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R165" sqref="R165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2664,21 +2664,21 @@
       <c r="B2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2688,17 +2688,17 @@
       <c r="B3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,43 +2716,43 @@
       <c r="B5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="N5" s="55" t="s">
+      <c r="M5" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="N5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2763,19 +2763,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="57"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2820,12 +2820,12 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="58"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q7" s="23" t="s">
         <v>467</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>468</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>40</v>
@@ -2833,35 +2833,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="61"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2952,12 +2952,12 @@
         <v>42</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N10" t="s">
         <v>440</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="38">
         <v>220</v>
       </c>
     </row>
@@ -2990,12 +2990,12 @@
         <v>42</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N11" t="s">
         <v>440</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="38">
         <v>412</v>
       </c>
     </row>
@@ -3028,12 +3028,12 @@
         <v>42</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N12" t="s">
         <v>440</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="38">
         <v>166</v>
       </c>
     </row>
@@ -3066,13 +3066,13 @@
         <v>42</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N13" t="s">
         <v>441</v>
       </c>
       <c r="O13" s="20"/>
-      <c r="P13" s="64">
+      <c r="P13" s="38">
         <v>353</v>
       </c>
     </row>
@@ -3105,12 +3105,12 @@
         <v>42</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N14" t="s">
         <v>441</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="38">
         <v>359.6</v>
       </c>
     </row>
@@ -3143,12 +3143,12 @@
         <v>42</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N15" t="s">
         <v>441</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="38">
         <v>371.6</v>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
         <v>42</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N16" t="s">
         <v>441</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="38">
         <v>386</v>
       </c>
     </row>
@@ -3219,12 +3219,12 @@
         <v>42</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N17" t="s">
         <v>442</v>
       </c>
-      <c r="P17" s="64">
+      <c r="P17" s="38">
         <v>118</v>
       </c>
     </row>
@@ -3257,12 +3257,12 @@
         <v>42</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N18" t="s">
         <v>442</v>
       </c>
-      <c r="P18" s="64">
+      <c r="P18" s="38">
         <v>127</v>
       </c>
     </row>
@@ -3295,12 +3295,12 @@
         <v>42</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N19" t="s">
         <v>442</v>
       </c>
-      <c r="P19" s="64">
+      <c r="P19" s="38">
         <v>382</v>
       </c>
     </row>
@@ -3333,12 +3333,12 @@
         <v>42</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N20" t="s">
         <v>442</v>
       </c>
-      <c r="P20" s="64">
+      <c r="P20" s="38">
         <v>527</v>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
         <v>42</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N21" t="s">
         <v>442</v>
       </c>
-      <c r="P21" s="64">
+      <c r="P21" s="38">
         <v>482</v>
       </c>
     </row>
@@ -3409,12 +3409,12 @@
         <v>42</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N22" t="s">
         <v>443</v>
       </c>
-      <c r="P22" s="64">
+      <c r="P22" s="38">
         <v>509</v>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
         <v>42</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N23" t="s">
         <v>443</v>
       </c>
-      <c r="P23" s="64">
+      <c r="P23" s="38">
         <v>131</v>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
         <v>42</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N24" t="s">
         <v>443</v>
       </c>
-      <c r="P24" s="64">
+      <c r="P24" s="38">
         <v>388</v>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
         <v>42</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N25" t="s">
         <v>443</v>
       </c>
-      <c r="P25" s="64">
+      <c r="P25" s="38">
         <v>538</v>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
         <v>42</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N26" t="s">
         <v>443</v>
       </c>
-      <c r="P26" s="64">
+      <c r="P26" s="38">
         <v>487</v>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
         <v>42</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N27" t="s">
         <v>444</v>
       </c>
-      <c r="P27" s="64">
+      <c r="P27" s="38">
         <v>135</v>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
         <v>42</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N28" t="s">
         <v>444</v>
       </c>
-      <c r="P28" s="64">
+      <c r="P28" s="38">
         <v>205</v>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
         <v>42</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N29" t="s">
         <v>444</v>
       </c>
-      <c r="P29" s="64">
+      <c r="P29" s="38">
         <v>380</v>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
         <v>42</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N30" t="s">
         <v>445</v>
       </c>
-      <c r="P30" s="64">
+      <c r="P30" s="38">
         <v>150</v>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
         <v>42</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N31" t="s">
         <v>445</v>
       </c>
-      <c r="P31" s="64">
+      <c r="P31" s="38">
         <v>300</v>
       </c>
     </row>
@@ -3789,12 +3789,12 @@
         <v>42</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N32" t="s">
         <v>445</v>
       </c>
-      <c r="P32" s="64">
+      <c r="P32" s="38">
         <v>420</v>
       </c>
     </row>
@@ -3827,12 +3827,12 @@
         <v>42</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N33" t="s">
         <v>446</v>
       </c>
-      <c r="P33" s="64">
+      <c r="P33" s="38">
         <v>238</v>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
         <v>42</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N34" t="s">
         <v>446</v>
       </c>
-      <c r="P34" s="64">
+      <c r="P34" s="38">
         <v>278</v>
       </c>
     </row>
@@ -3903,12 +3903,12 @@
         <v>42</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N35" t="s">
         <v>446</v>
       </c>
-      <c r="P35" s="64">
+      <c r="P35" s="38">
         <v>392</v>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
         <v>42</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N36" t="s">
         <v>446</v>
       </c>
-      <c r="P36" s="64">
+      <c r="P36" s="38">
         <v>521</v>
       </c>
     </row>
@@ -3979,12 +3979,12 @@
         <v>42</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N37" t="s">
         <v>446</v>
       </c>
-      <c r="P37" s="64">
+      <c r="P37" s="38">
         <v>546</v>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
         <v>42</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N38" t="s">
         <v>446</v>
       </c>
-      <c r="P38" s="64">
+      <c r="P38" s="38">
         <v>550</v>
       </c>
     </row>
@@ -4055,12 +4055,12 @@
         <v>42</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N39" t="s">
         <v>446</v>
       </c>
-      <c r="P39" s="64">
+      <c r="P39" s="38">
         <v>544</v>
       </c>
     </row>
@@ -4093,12 +4093,12 @@
         <v>42</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N40" t="s">
         <v>446</v>
       </c>
-      <c r="P40" s="64">
+      <c r="P40" s="38">
         <v>567</v>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
         <v>42</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N41" t="s">
         <v>446</v>
       </c>
-      <c r="P41" s="64">
+      <c r="P41" s="38">
         <v>576</v>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
         <v>42</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N42" t="s">
         <v>446</v>
       </c>
-      <c r="P42" s="64">
+      <c r="P42" s="38">
         <v>593</v>
       </c>
     </row>
@@ -4207,12 +4207,12 @@
         <v>42</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N43" t="s">
         <v>447</v>
       </c>
-      <c r="P43" s="64">
+      <c r="P43" s="38">
         <v>473</v>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
         <v>42</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N44" t="s">
         <v>447</v>
       </c>
-      <c r="P44" s="64">
+      <c r="P44" s="38">
         <v>367</v>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
         <v>42</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N45" t="s">
         <v>447</v>
       </c>
-      <c r="P45" s="64">
+      <c r="P45" s="38">
         <v>458</v>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
         <v>42</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N46" t="s">
         <v>447</v>
       </c>
-      <c r="P46" s="64">
+      <c r="P46" s="38">
         <v>418</v>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
         <v>42</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N47" t="s">
         <v>447</v>
       </c>
-      <c r="P47" s="64">
+      <c r="P47" s="38">
         <v>423</v>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
         <v>42</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N48" t="s">
         <v>447</v>
       </c>
-      <c r="P48" s="64">
+      <c r="P48" s="38">
         <v>208</v>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
         <v>42</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N49" t="s">
         <v>448</v>
       </c>
-      <c r="P49" s="64">
+      <c r="P49" s="38">
         <v>280</v>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
         <v>42</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N50" t="s">
         <v>448</v>
       </c>
-      <c r="P50" s="64">
+      <c r="P50" s="38">
         <v>580</v>
       </c>
     </row>
@@ -4511,12 +4511,12 @@
         <v>42</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N51" t="s">
         <v>449</v>
       </c>
-      <c r="P51" s="64">
+      <c r="P51" s="38">
         <v>450</v>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
         <v>42</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N52" t="s">
         <v>449</v>
       </c>
-      <c r="P52" s="64">
+      <c r="P52" s="38">
         <v>304</v>
       </c>
     </row>
@@ -4587,12 +4587,12 @@
         <v>42</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N53" t="s">
         <v>450</v>
       </c>
-      <c r="P53" s="64">
+      <c r="P53" s="38">
         <v>695</v>
       </c>
     </row>
@@ -4625,12 +4625,12 @@
         <v>42</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N54" t="s">
         <v>450</v>
       </c>
-      <c r="P54" s="64">
+      <c r="P54" s="38">
         <v>740</v>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
         <v>42</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N55" t="s">
         <v>451</v>
       </c>
-      <c r="P55" s="64">
+      <c r="P55" s="38">
         <v>479</v>
       </c>
     </row>
@@ -4701,12 +4701,12 @@
         <v>42</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N56" t="s">
         <v>451</v>
       </c>
-      <c r="P56" s="64">
+      <c r="P56" s="38">
         <v>494</v>
       </c>
     </row>
@@ -4739,12 +4739,12 @@
         <v>42</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N57" t="s">
         <v>451</v>
       </c>
-      <c r="P57" s="64">
+      <c r="P57" s="38">
         <v>486</v>
       </c>
     </row>
@@ -4777,12 +4777,12 @@
         <v>42</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N58" t="s">
         <v>451</v>
       </c>
-      <c r="P58" s="64">
+      <c r="P58" s="38">
         <v>408</v>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
         <v>42</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N59" t="s">
         <v>451</v>
       </c>
-      <c r="P59" s="64">
+      <c r="P59" s="38">
         <v>370</v>
       </c>
     </row>
@@ -4853,12 +4853,12 @@
         <v>42</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N60" t="s">
         <v>452</v>
       </c>
-      <c r="P60" s="64">
+      <c r="P60" s="38">
         <v>166</v>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
         <v>42</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N61" t="s">
         <v>452</v>
       </c>
-      <c r="P61" s="64">
+      <c r="P61" s="38">
         <v>536</v>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
         <v>42</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N62" t="s">
         <v>452</v>
       </c>
-      <c r="P62" s="64">
+      <c r="P62" s="38">
         <v>531</v>
       </c>
     </row>
@@ -4967,12 +4967,12 @@
         <v>42</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N63" t="s">
         <v>452</v>
       </c>
-      <c r="P63" s="64">
+      <c r="P63" s="38">
         <v>545</v>
       </c>
     </row>
@@ -5005,12 +5005,12 @@
         <v>42</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N64" t="s">
         <v>452</v>
       </c>
-      <c r="P64" s="64">
+      <c r="P64" s="38">
         <v>366</v>
       </c>
     </row>
@@ -5043,12 +5043,12 @@
         <v>42</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N65" t="s">
         <v>452</v>
       </c>
-      <c r="P65" s="64">
+      <c r="P65" s="38">
         <v>249</v>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
         <v>42</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N66" t="s">
         <v>453</v>
       </c>
-      <c r="P66" s="64">
+      <c r="P66" s="38">
         <v>178.6</v>
       </c>
     </row>
@@ -5119,12 +5119,12 @@
         <v>42</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N67" t="s">
         <v>453</v>
       </c>
-      <c r="P67" s="64">
+      <c r="P67" s="38">
         <v>169.7</v>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
         <v>42</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N68" t="s">
         <v>453</v>
       </c>
-      <c r="P68" s="64">
+      <c r="P68" s="38">
         <v>182</v>
       </c>
     </row>
@@ -5195,12 +5195,12 @@
         <v>42</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N69" t="s">
         <v>453</v>
       </c>
-      <c r="P69" s="64">
+      <c r="P69" s="38">
         <v>182.5</v>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
         <v>42</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N70" t="s">
         <v>453</v>
       </c>
-      <c r="P70" s="64">
+      <c r="P70" s="38">
         <v>218.9</v>
       </c>
     </row>
@@ -5271,12 +5271,12 @@
         <v>42</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N71" t="s">
         <v>453</v>
       </c>
-      <c r="P71" s="64">
+      <c r="P71" s="38">
         <v>277.8</v>
       </c>
     </row>
@@ -5309,12 +5309,12 @@
         <v>42</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N72" t="s">
         <v>453</v>
       </c>
-      <c r="P72" s="64">
+      <c r="P72" s="38">
         <v>402.6</v>
       </c>
     </row>
@@ -5346,12 +5346,12 @@
         <v>42</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N73" t="s">
         <v>453</v>
       </c>
-      <c r="P73" s="64">
+      <c r="P73" s="38">
         <v>484.1</v>
       </c>
     </row>
@@ -5383,12 +5383,12 @@
         <v>42</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N74" t="s">
         <v>453</v>
       </c>
-      <c r="P74" s="64">
+      <c r="P74" s="38">
         <v>528.29999999999995</v>
       </c>
     </row>
@@ -5420,12 +5420,12 @@
         <v>42</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N75" t="s">
         <v>453</v>
       </c>
-      <c r="P75" s="64">
+      <c r="P75" s="38">
         <v>538.1</v>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
         <v>42</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N76" t="s">
         <v>453</v>
       </c>
-      <c r="P76" s="64">
+      <c r="P76" s="38">
         <v>530.29999999999995</v>
       </c>
     </row>
@@ -5494,12 +5494,12 @@
         <v>42</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N77" t="s">
         <v>453</v>
       </c>
-      <c r="P77" s="64">
+      <c r="P77" s="38">
         <v>534.20000000000005</v>
       </c>
     </row>
@@ -5531,12 +5531,12 @@
         <v>42</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N78" t="s">
         <v>453</v>
       </c>
-      <c r="P78" s="64">
+      <c r="P78" s="38">
         <v>537.1</v>
       </c>
     </row>
@@ -5568,12 +5568,12 @@
         <v>42</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N79" t="s">
         <v>454</v>
       </c>
-      <c r="P79" s="64">
+      <c r="P79" s="38">
         <v>168</v>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
         <v>42</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N80" t="s">
         <v>455</v>
       </c>
-      <c r="P80" s="64">
+      <c r="P80" s="38">
         <v>273</v>
       </c>
     </row>
@@ -5642,12 +5642,12 @@
         <v>42</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N81" t="s">
         <v>455</v>
       </c>
-      <c r="P81" s="64">
+      <c r="P81" s="38">
         <v>475</v>
       </c>
     </row>
@@ -5679,12 +5679,12 @@
         <v>42</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N82" t="s">
         <v>455</v>
       </c>
-      <c r="P82" s="64">
+      <c r="P82" s="38">
         <v>558</v>
       </c>
     </row>
@@ -5716,12 +5716,12 @@
         <v>42</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N83" t="s">
         <v>455</v>
       </c>
-      <c r="P83" s="64">
+      <c r="P83" s="38">
         <v>510</v>
       </c>
     </row>
@@ -5753,12 +5753,12 @@
         <v>42</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N84" t="s">
         <v>455</v>
       </c>
-      <c r="P84" s="64">
+      <c r="P84" s="38">
         <v>603</v>
       </c>
     </row>
@@ -5790,12 +5790,12 @@
         <v>42</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N85" t="s">
         <v>455</v>
       </c>
-      <c r="P85" s="64">
+      <c r="P85" s="38">
         <v>625</v>
       </c>
     </row>
@@ -5827,12 +5827,12 @@
         <v>42</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N86" t="s">
         <v>455</v>
       </c>
-      <c r="P86" s="64">
+      <c r="P86" s="38">
         <v>655</v>
       </c>
     </row>
@@ -5864,12 +5864,12 @@
         <v>42</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N87" t="s">
         <v>455</v>
       </c>
-      <c r="P87" s="64">
+      <c r="P87" s="38">
         <v>735</v>
       </c>
     </row>
@@ -5901,12 +5901,12 @@
         <v>42</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N88" t="s">
         <v>456</v>
       </c>
-      <c r="P88" s="64">
+      <c r="P88" s="38">
         <v>152</v>
       </c>
     </row>
@@ -5938,12 +5938,12 @@
         <v>42</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N89" t="s">
         <v>457</v>
       </c>
-      <c r="P89" s="64">
+      <c r="P89" s="38">
         <v>286</v>
       </c>
     </row>
@@ -5975,12 +5975,12 @@
         <v>42</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N90" t="s">
         <v>458</v>
       </c>
-      <c r="P90" s="64">
+      <c r="P90" s="38">
         <v>358</v>
       </c>
     </row>
@@ -6012,12 +6012,12 @@
         <v>42</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N91" t="s">
         <v>458</v>
       </c>
-      <c r="P91" s="64">
+      <c r="P91" s="38">
         <v>586</v>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
         <v>42</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N92" t="s">
         <v>458</v>
       </c>
-      <c r="P92" s="64">
+      <c r="P92" s="38">
         <v>601</v>
       </c>
     </row>
@@ -6086,12 +6086,12 @@
         <v>42</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N93" t="s">
         <v>458</v>
       </c>
-      <c r="P93" s="64">
+      <c r="P93" s="38">
         <v>295</v>
       </c>
     </row>
@@ -6123,12 +6123,12 @@
         <v>42</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N94" t="s">
         <v>458</v>
       </c>
-      <c r="P94" s="64">
+      <c r="P94" s="38">
         <v>584</v>
       </c>
     </row>
@@ -6160,12 +6160,12 @@
         <v>42</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N95" t="s">
         <v>458</v>
       </c>
-      <c r="P95" s="64">
+      <c r="P95" s="38">
         <v>310</v>
       </c>
     </row>
@@ -6197,12 +6197,12 @@
         <v>42</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N96" t="s">
         <v>458</v>
       </c>
-      <c r="P96" s="64">
+      <c r="P96" s="38">
         <v>451</v>
       </c>
     </row>
@@ -6234,12 +6234,12 @@
         <v>42</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N97" t="s">
         <v>458</v>
       </c>
-      <c r="P97" s="64">
+      <c r="P97" s="38">
         <v>546</v>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
         <v>42</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N98" t="s">
         <v>458</v>
       </c>
-      <c r="P98" s="64">
+      <c r="P98" s="38">
         <v>607</v>
       </c>
     </row>
@@ -6308,12 +6308,12 @@
         <v>42</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N99" t="s">
         <v>458</v>
       </c>
-      <c r="P99" s="64">
+      <c r="P99" s="38">
         <v>537</v>
       </c>
     </row>
@@ -6345,12 +6345,12 @@
         <v>42</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N100" t="s">
         <v>458</v>
       </c>
-      <c r="P100" s="64">
+      <c r="P100" s="38">
         <v>514</v>
       </c>
     </row>
@@ -6382,12 +6382,12 @@
         <v>42</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N101" t="s">
         <v>458</v>
       </c>
-      <c r="P101" s="64">
+      <c r="P101" s="38">
         <v>604</v>
       </c>
     </row>
@@ -6419,12 +6419,12 @@
         <v>42</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N102" t="s">
         <v>458</v>
       </c>
-      <c r="P102" s="64">
+      <c r="P102" s="38">
         <v>639</v>
       </c>
     </row>
@@ -6456,12 +6456,12 @@
         <v>42</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N103" t="s">
         <v>458</v>
       </c>
-      <c r="P103" s="64">
+      <c r="P103" s="38">
         <v>534</v>
       </c>
     </row>
@@ -6493,12 +6493,12 @@
         <v>42</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N104" t="s">
         <v>458</v>
       </c>
-      <c r="P104" s="64">
+      <c r="P104" s="38">
         <v>609</v>
       </c>
     </row>
@@ -6530,12 +6530,12 @@
         <v>42</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N105" t="s">
         <v>458</v>
       </c>
-      <c r="P105" s="64">
+      <c r="P105" s="38">
         <v>551</v>
       </c>
     </row>
@@ -6567,12 +6567,12 @@
         <v>42</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N106" t="s">
         <v>458</v>
       </c>
-      <c r="P106" s="64">
+      <c r="P106" s="38">
         <v>586</v>
       </c>
     </row>
@@ -6604,12 +6604,12 @@
         <v>42</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N107" t="s">
         <v>459</v>
       </c>
-      <c r="P107" s="64">
+      <c r="P107" s="38">
         <v>225</v>
       </c>
     </row>
@@ -6641,12 +6641,12 @@
         <v>42</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N108" t="s">
         <v>459</v>
       </c>
-      <c r="P108" s="64">
+      <c r="P108" s="38">
         <v>146</v>
       </c>
     </row>
@@ -6678,12 +6678,12 @@
         <v>42</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N109" t="s">
         <v>459</v>
       </c>
-      <c r="P109" s="64">
+      <c r="P109" s="38">
         <v>150</v>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
         <v>42</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N110" t="s">
         <v>459</v>
       </c>
-      <c r="P110" s="64">
+      <c r="P110" s="38">
         <v>158</v>
       </c>
     </row>
@@ -6752,12 +6752,12 @@
         <v>42</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N111" t="s">
         <v>459</v>
       </c>
-      <c r="P111" s="64">
+      <c r="P111" s="38">
         <v>175</v>
       </c>
     </row>
@@ -6789,12 +6789,12 @@
         <v>42</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N112" t="s">
         <v>459</v>
       </c>
-      <c r="P112" s="64">
+      <c r="P112" s="38">
         <v>154</v>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
         <v>42</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N113" t="s">
         <v>459</v>
       </c>
-      <c r="P113" s="64">
+      <c r="P113" s="38">
         <v>153</v>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
         <v>42</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N114" t="s">
         <v>459</v>
       </c>
-      <c r="P114" s="64">
+      <c r="P114" s="38">
         <v>158</v>
       </c>
     </row>
@@ -6900,12 +6900,12 @@
         <v>42</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N115" t="s">
         <v>459</v>
       </c>
-      <c r="P115" s="64">
+      <c r="P115" s="38">
         <v>161</v>
       </c>
     </row>
@@ -6937,12 +6937,12 @@
         <v>42</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N116" t="s">
         <v>459</v>
       </c>
-      <c r="P116" s="64">
+      <c r="P116" s="38">
         <v>172</v>
       </c>
     </row>
@@ -6974,12 +6974,12 @@
         <v>42</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N117" t="s">
         <v>459</v>
       </c>
-      <c r="P117" s="64">
+      <c r="P117" s="38">
         <v>183</v>
       </c>
     </row>
@@ -7011,12 +7011,12 @@
         <v>42</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N118" t="s">
         <v>459</v>
       </c>
-      <c r="P118" s="64">
+      <c r="P118" s="38">
         <v>182</v>
       </c>
     </row>
@@ -7048,12 +7048,12 @@
         <v>42</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N119" t="s">
         <v>459</v>
       </c>
-      <c r="P119" s="64">
+      <c r="P119" s="38">
         <v>172</v>
       </c>
     </row>
@@ -7085,12 +7085,12 @@
         <v>42</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N120" t="s">
         <v>459</v>
       </c>
-      <c r="P120" s="64">
+      <c r="P120" s="38">
         <v>157</v>
       </c>
     </row>
@@ -7122,12 +7122,12 @@
         <v>42</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N121" t="s">
         <v>459</v>
       </c>
-      <c r="P121" s="64">
+      <c r="P121" s="38">
         <v>170</v>
       </c>
     </row>
@@ -7159,12 +7159,12 @@
         <v>42</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N122" t="s">
         <v>459</v>
       </c>
-      <c r="P122" s="64">
+      <c r="P122" s="38">
         <v>167</v>
       </c>
     </row>
@@ -7196,12 +7196,12 @@
         <v>42</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N123" t="s">
         <v>459</v>
       </c>
-      <c r="P123" s="64">
+      <c r="P123" s="38">
         <v>158</v>
       </c>
     </row>
@@ -7233,12 +7233,12 @@
         <v>42</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N124" t="s">
         <v>459</v>
       </c>
-      <c r="P124" s="64">
+      <c r="P124" s="38">
         <v>140</v>
       </c>
     </row>
@@ -7270,12 +7270,12 @@
         <v>42</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N125" t="s">
         <v>459</v>
       </c>
-      <c r="P125" s="64">
+      <c r="P125" s="38">
         <v>125</v>
       </c>
     </row>
@@ -7307,12 +7307,12 @@
         <v>42</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N126" t="s">
         <v>459</v>
       </c>
-      <c r="P126" s="64">
+      <c r="P126" s="38">
         <v>242</v>
       </c>
     </row>
@@ -7344,12 +7344,12 @@
         <v>42</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N127" t="s">
         <v>459</v>
       </c>
-      <c r="P127" s="64">
+      <c r="P127" s="38">
         <v>265</v>
       </c>
     </row>
@@ -7381,12 +7381,12 @@
         <v>42</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N128" t="s">
         <v>459</v>
       </c>
-      <c r="P128" s="64">
+      <c r="P128" s="38">
         <v>335</v>
       </c>
     </row>
@@ -7418,12 +7418,12 @@
         <v>42</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N129" t="s">
         <v>459</v>
       </c>
-      <c r="P129" s="64">
+      <c r="P129" s="38">
         <v>170</v>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
         <v>42</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N130" t="s">
         <v>459</v>
       </c>
-      <c r="P130" s="64">
+      <c r="P130" s="38">
         <v>503</v>
       </c>
     </row>
@@ -7492,12 +7492,12 @@
         <v>42</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N131" t="s">
         <v>459</v>
       </c>
-      <c r="P131" s="64">
+      <c r="P131" s="38">
         <v>555</v>
       </c>
     </row>
@@ -7529,12 +7529,12 @@
         <v>42</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N132" t="s">
         <v>459</v>
       </c>
-      <c r="P132" s="64">
+      <c r="P132" s="38">
         <v>548</v>
       </c>
     </row>
@@ -7566,12 +7566,12 @@
         <v>42</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N133" t="s">
         <v>459</v>
       </c>
-      <c r="P133" s="64">
+      <c r="P133" s="38">
         <v>615</v>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
         <v>42</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N134" t="s">
         <v>459</v>
       </c>
-      <c r="P134" s="64">
+      <c r="P134" s="38">
         <v>720</v>
       </c>
     </row>
@@ -7640,12 +7640,12 @@
         <v>42</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N135" t="s">
         <v>459</v>
       </c>
-      <c r="P135" s="64">
+      <c r="P135" s="38">
         <v>550</v>
       </c>
     </row>
@@ -7677,12 +7677,12 @@
         <v>42</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N136" t="s">
         <v>459</v>
       </c>
-      <c r="P136" s="64">
+      <c r="P136" s="38">
         <v>539</v>
       </c>
     </row>
@@ -7714,12 +7714,12 @@
         <v>42</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N137" t="s">
         <v>459</v>
       </c>
-      <c r="P137" s="64">
+      <c r="P137" s="38">
         <v>438</v>
       </c>
     </row>
@@ -7751,12 +7751,12 @@
         <v>42</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N138" t="s">
         <v>459</v>
       </c>
-      <c r="P138" s="64">
+      <c r="P138" s="38">
         <v>476</v>
       </c>
     </row>
@@ -7788,12 +7788,12 @@
         <v>42</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N139" t="s">
         <v>459</v>
       </c>
-      <c r="P139" s="64">
+      <c r="P139" s="38">
         <v>587</v>
       </c>
     </row>
@@ -7825,12 +7825,12 @@
         <v>42</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N140" t="s">
         <v>459</v>
       </c>
-      <c r="P140" s="64">
+      <c r="P140" s="38">
         <v>558</v>
       </c>
     </row>
@@ -7862,12 +7862,12 @@
         <v>42</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N141" t="s">
         <v>459</v>
       </c>
-      <c r="P141" s="64">
+      <c r="P141" s="38">
         <v>510</v>
       </c>
     </row>
@@ -7899,12 +7899,12 @@
         <v>42</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N142" t="s">
         <v>459</v>
       </c>
-      <c r="P142" s="64">
+      <c r="P142" s="38">
         <v>775</v>
       </c>
     </row>
@@ -7936,12 +7936,12 @@
         <v>42</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N143" t="s">
         <v>459</v>
       </c>
-      <c r="P143" s="64">
+      <c r="P143" s="38">
         <v>140</v>
       </c>
     </row>
@@ -7973,12 +7973,12 @@
         <v>42</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N144" t="s">
         <v>459</v>
       </c>
-      <c r="P144" s="64">
+      <c r="P144" s="38">
         <v>410</v>
       </c>
     </row>
@@ -8010,12 +8010,12 @@
         <v>42</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N145" t="s">
         <v>459</v>
       </c>
-      <c r="P145" s="64">
+      <c r="P145" s="38">
         <v>510</v>
       </c>
     </row>
@@ -8047,12 +8047,12 @@
         <v>42</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N146" t="s">
         <v>460</v>
       </c>
-      <c r="P146" s="64">
+      <c r="P146" s="38">
         <v>145</v>
       </c>
     </row>
@@ -8084,12 +8084,12 @@
         <v>42</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N147" t="s">
         <v>461</v>
       </c>
-      <c r="P147" s="64">
+      <c r="P147" s="38">
         <v>359</v>
       </c>
     </row>
@@ -8121,12 +8121,12 @@
         <v>42</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N148" t="s">
         <v>462</v>
       </c>
-      <c r="P148" s="64">
+      <c r="P148" s="38">
         <v>396</v>
       </c>
     </row>
@@ -8158,12 +8158,12 @@
         <v>42</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N149" t="s">
-        <v>463</v>
-      </c>
-      <c r="P149" s="64">
+        <v>475</v>
+      </c>
+      <c r="P149" s="38">
         <v>271</v>
       </c>
     </row>
@@ -8195,12 +8195,12 @@
         <v>42</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N150" t="s">
-        <v>463</v>
-      </c>
-      <c r="P150" s="64">
+        <v>475</v>
+      </c>
+      <c r="P150" s="38">
         <v>406</v>
       </c>
     </row>
@@ -8232,12 +8232,12 @@
         <v>42</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N151" t="s">
-        <v>463</v>
-      </c>
-      <c r="P151" s="64">
+        <v>475</v>
+      </c>
+      <c r="P151" s="38">
         <v>481</v>
       </c>
     </row>
@@ -8269,12 +8269,12 @@
         <v>42</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N152" t="s">
-        <v>463</v>
-      </c>
-      <c r="P152" s="64">
+        <v>475</v>
+      </c>
+      <c r="P152" s="38">
         <v>661</v>
       </c>
     </row>
@@ -8306,12 +8306,12 @@
         <v>42</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N153" t="s">
-        <v>463</v>
-      </c>
-      <c r="P153" s="64">
+        <v>475</v>
+      </c>
+      <c r="P153" s="38">
         <v>240</v>
       </c>
     </row>
@@ -8343,12 +8343,12 @@
         <v>42</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N154" t="s">
-        <v>463</v>
-      </c>
-      <c r="P154" s="64">
+        <v>475</v>
+      </c>
+      <c r="P154" s="38">
         <v>328</v>
       </c>
     </row>
@@ -8380,12 +8380,12 @@
         <v>42</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N155" t="s">
-        <v>463</v>
-      </c>
-      <c r="P155" s="64">
+        <v>475</v>
+      </c>
+      <c r="P155" s="38">
         <v>379</v>
       </c>
     </row>
@@ -8417,12 +8417,12 @@
         <v>42</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N156" t="s">
-        <v>463</v>
-      </c>
-      <c r="P156" s="64">
+        <v>475</v>
+      </c>
+      <c r="P156" s="38">
         <v>481</v>
       </c>
     </row>
@@ -8454,12 +8454,12 @@
         <v>42</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N157" t="s">
-        <v>463</v>
-      </c>
-      <c r="P157" s="64">
+        <v>475</v>
+      </c>
+      <c r="P157" s="38">
         <v>484</v>
       </c>
     </row>
@@ -8491,12 +8491,12 @@
         <v>42</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N158" t="s">
-        <v>463</v>
-      </c>
-      <c r="P158" s="64">
+        <v>475</v>
+      </c>
+      <c r="P158" s="38">
         <v>740</v>
       </c>
     </row>
@@ -8528,12 +8528,12 @@
         <v>42</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N159" t="s">
-        <v>463</v>
-      </c>
-      <c r="P159" s="64">
+        <v>475</v>
+      </c>
+      <c r="P159" s="38">
         <v>169</v>
       </c>
     </row>
@@ -8565,12 +8565,12 @@
         <v>42</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N160" t="s">
-        <v>463</v>
-      </c>
-      <c r="P160" s="64">
+        <v>475</v>
+      </c>
+      <c r="P160" s="38">
         <v>200</v>
       </c>
     </row>
@@ -8602,12 +8602,12 @@
         <v>42</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N161" t="s">
-        <v>463</v>
-      </c>
-      <c r="P161" s="64">
+        <v>475</v>
+      </c>
+      <c r="P161" s="38">
         <v>240</v>
       </c>
     </row>
@@ -8639,12 +8639,12 @@
         <v>42</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N162" t="s">
-        <v>463</v>
-      </c>
-      <c r="P162" s="64">
+        <v>475</v>
+      </c>
+      <c r="P162" s="38">
         <v>291</v>
       </c>
     </row>
@@ -8676,12 +8676,12 @@
         <v>42</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N163" t="s">
-        <v>463</v>
-      </c>
-      <c r="P163" s="64">
+        <v>475</v>
+      </c>
+      <c r="P163" s="38">
         <v>322</v>
       </c>
     </row>
@@ -8713,12 +8713,12 @@
         <v>42</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N164" t="s">
-        <v>463</v>
-      </c>
-      <c r="P164" s="64">
+        <v>475</v>
+      </c>
+      <c r="P164" s="38">
         <v>338</v>
       </c>
     </row>
@@ -8750,12 +8750,12 @@
         <v>42</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N165" t="s">
-        <v>463</v>
-      </c>
-      <c r="P165" s="64">
+        <v>475</v>
+      </c>
+      <c r="P165" s="38">
         <v>389</v>
       </c>
     </row>
@@ -8787,12 +8787,12 @@
         <v>42</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N166" t="s">
-        <v>463</v>
-      </c>
-      <c r="P166" s="64">
+        <v>475</v>
+      </c>
+      <c r="P166" s="38">
         <v>522</v>
       </c>
     </row>
@@ -8824,12 +8824,12 @@
         <v>42</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N167" t="s">
-        <v>463</v>
-      </c>
-      <c r="P167" s="64">
+        <v>475</v>
+      </c>
+      <c r="P167" s="38">
         <v>572</v>
       </c>
     </row>
@@ -8861,12 +8861,12 @@
         <v>42</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N168" t="s">
-        <v>463</v>
-      </c>
-      <c r="P168" s="64">
+        <v>475</v>
+      </c>
+      <c r="P168" s="38">
         <v>600</v>
       </c>
     </row>
@@ -8898,12 +8898,12 @@
         <v>42</v>
       </c>
       <c r="M169" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N169" t="s">
-        <v>464</v>
-      </c>
-      <c r="P169" s="64">
+        <v>463</v>
+      </c>
+      <c r="P169" s="38">
         <v>154</v>
       </c>
     </row>
@@ -8935,12 +8935,12 @@
         <v>42</v>
       </c>
       <c r="M170" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N170" t="s">
-        <v>465</v>
-      </c>
-      <c r="P170" s="64">
+        <v>464</v>
+      </c>
+      <c r="P170" s="38">
         <v>419</v>
       </c>
     </row>
@@ -8972,12 +8972,12 @@
         <v>42</v>
       </c>
       <c r="M171" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N171" t="s">
-        <v>466</v>
-      </c>
-      <c r="P171" s="64">
+        <v>465</v>
+      </c>
+      <c r="P171" s="38">
         <v>764</v>
       </c>
     </row>
@@ -9009,12 +9009,12 @@
         <v>42</v>
       </c>
       <c r="M172" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N172" t="s">
-        <v>466</v>
-      </c>
-      <c r="P172" s="64">
+        <v>465</v>
+      </c>
+      <c r="P172" s="38">
         <v>591</v>
       </c>
     </row>
@@ -9046,12 +9046,12 @@
         <v>42</v>
       </c>
       <c r="M173" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N173" t="s">
-        <v>466</v>
-      </c>
-      <c r="P173" s="64">
+        <v>465</v>
+      </c>
+      <c r="P173" s="38">
         <v>701</v>
       </c>
     </row>
@@ -9083,12 +9083,12 @@
         <v>42</v>
       </c>
       <c r="M174" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N174" t="s">
-        <v>466</v>
-      </c>
-      <c r="P174" s="64">
+        <v>465</v>
+      </c>
+      <c r="P174" s="38">
         <v>768</v>
       </c>
     </row>
@@ -9120,12 +9120,12 @@
         <v>42</v>
       </c>
       <c r="M175" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N175" t="s">
-        <v>466</v>
-      </c>
-      <c r="P175" s="64">
+        <v>465</v>
+      </c>
+      <c r="P175" s="38">
         <v>702</v>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
         <v>42</v>
       </c>
       <c r="M176" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N176" t="s">
-        <v>466</v>
-      </c>
-      <c r="P176" s="64">
+        <v>465</v>
+      </c>
+      <c r="P176" s="38">
         <v>694</v>
       </c>
     </row>
@@ -9194,12 +9194,12 @@
         <v>42</v>
       </c>
       <c r="M177" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N177" t="s">
-        <v>466</v>
-      </c>
-      <c r="P177" s="64">
+        <v>465</v>
+      </c>
+      <c r="P177" s="38">
         <v>149</v>
       </c>
     </row>
@@ -9231,12 +9231,12 @@
         <v>42</v>
       </c>
       <c r="M178" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N178" t="s">
-        <v>466</v>
-      </c>
-      <c r="P178" s="64">
+        <v>465</v>
+      </c>
+      <c r="P178" s="38">
         <v>229</v>
       </c>
     </row>
@@ -9268,12 +9268,12 @@
         <v>42</v>
       </c>
       <c r="M179" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N179" t="s">
-        <v>466</v>
-      </c>
-      <c r="P179" s="64">
+        <v>465</v>
+      </c>
+      <c r="P179" s="38">
         <v>459</v>
       </c>
     </row>
@@ -9305,12 +9305,12 @@
         <v>42</v>
       </c>
       <c r="M180" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N180" t="s">
-        <v>466</v>
-      </c>
-      <c r="P180" s="64">
+        <v>465</v>
+      </c>
+      <c r="P180" s="38">
         <v>469</v>
       </c>
     </row>
@@ -9342,12 +9342,12 @@
         <v>42</v>
       </c>
       <c r="M181" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N181" t="s">
-        <v>466</v>
-      </c>
-      <c r="P181" s="64">
+        <v>465</v>
+      </c>
+      <c r="P181" s="38">
         <v>483</v>
       </c>
     </row>
@@ -9379,12 +9379,12 @@
         <v>42</v>
       </c>
       <c r="M182" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N182" t="s">
-        <v>466</v>
-      </c>
-      <c r="P182" s="64">
+        <v>465</v>
+      </c>
+      <c r="P182" s="38">
         <v>472</v>
       </c>
     </row>
@@ -9416,12 +9416,12 @@
         <v>42</v>
       </c>
       <c r="M183" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N183" t="s">
-        <v>466</v>
-      </c>
-      <c r="P183" s="64">
+        <v>465</v>
+      </c>
+      <c r="P183" s="38">
         <v>454</v>
       </c>
     </row>
@@ -9453,12 +9453,12 @@
         <v>42</v>
       </c>
       <c r="M184" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N184" t="s">
-        <v>466</v>
-      </c>
-      <c r="P184" s="64">
+        <v>465</v>
+      </c>
+      <c r="P184" s="38">
         <v>441</v>
       </c>
     </row>
@@ -9490,12 +9490,12 @@
         <v>42</v>
       </c>
       <c r="M185" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N185" t="s">
-        <v>466</v>
-      </c>
-      <c r="P185" s="64">
+        <v>465</v>
+      </c>
+      <c r="P185" s="38">
         <v>495</v>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
         <v>42</v>
       </c>
       <c r="M186" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N186" t="s">
-        <v>466</v>
-      </c>
-      <c r="P186" s="64">
+        <v>465</v>
+      </c>
+      <c r="P186" s="38">
         <v>477</v>
       </c>
     </row>
@@ -9564,12 +9564,12 @@
         <v>42</v>
       </c>
       <c r="M187" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N187" t="s">
-        <v>466</v>
-      </c>
-      <c r="P187" s="64">
+        <v>465</v>
+      </c>
+      <c r="P187" s="38">
         <v>469</v>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C188" s="34"/>
       <c r="D188" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>62</v>
@@ -9609,9 +9609,9 @@
         <v>61</v>
       </c>
       <c r="N188" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P188" s="64">
+        <v>470</v>
+      </c>
+      <c r="P188" s="38">
         <v>785.6</v>
       </c>
       <c r="Q188">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="C189" s="34"/>
       <c r="D189" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>62</v>
@@ -9654,9 +9654,9 @@
         <v>61</v>
       </c>
       <c r="N189" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P189" s="64">
+        <v>470</v>
+      </c>
+      <c r="P189" s="38">
         <v>771.1</v>
       </c>
       <c r="Q189">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="C190" s="34"/>
       <c r="D190" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F190" s="33" t="s">
         <v>62</v>
@@ -9699,9 +9699,9 @@
         <v>61</v>
       </c>
       <c r="N190" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P190" s="64">
+        <v>470</v>
+      </c>
+      <c r="P190" s="38">
         <v>783.7</v>
       </c>
       <c r="Q190">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="C191" s="34"/>
       <c r="D191" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F191" s="33" t="s">
         <v>62</v>
@@ -9744,9 +9744,9 @@
         <v>61</v>
       </c>
       <c r="N191" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P191" s="64">
+        <v>470</v>
+      </c>
+      <c r="P191" s="38">
         <v>771.9</v>
       </c>
       <c r="Q191">
@@ -9762,7 +9762,7 @@
       </c>
       <c r="C192" s="34"/>
       <c r="D192" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F192" s="33" t="s">
         <v>62</v>
@@ -9789,9 +9789,9 @@
         <v>61</v>
       </c>
       <c r="N192" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P192" s="64">
+        <v>470</v>
+      </c>
+      <c r="P192" s="38">
         <v>797.1</v>
       </c>
       <c r="Q192">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="C193" s="34"/>
       <c r="D193" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F193" s="33" t="s">
         <v>62</v>
@@ -9834,9 +9834,9 @@
         <v>61</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P193" s="64">
+        <v>470</v>
+      </c>
+      <c r="P193" s="38">
         <v>792.2</v>
       </c>
       <c r="Q193">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="C194" s="34"/>
       <c r="D194" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F194" s="33" t="s">
         <v>62</v>
@@ -9879,9 +9879,9 @@
         <v>61</v>
       </c>
       <c r="N194" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P194" s="64">
+        <v>470</v>
+      </c>
+      <c r="P194" s="38">
         <v>804.3</v>
       </c>
       <c r="Q194">
@@ -9896,13 +9896,13 @@
         <v>333</v>
       </c>
       <c r="C195" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D195" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E195" t="s">
         <v>472</v>
-      </c>
-      <c r="D195" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="E195" t="s">
-        <v>473</v>
       </c>
       <c r="F195" s="33" t="s">
         <v>62</v>
@@ -9929,9 +9929,9 @@
         <v>61</v>
       </c>
       <c r="N195" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P195" s="64">
+        <v>470</v>
+      </c>
+      <c r="P195" s="38">
         <v>815.4</v>
       </c>
       <c r="Q195">
@@ -9946,13 +9946,13 @@
         <v>334</v>
       </c>
       <c r="C196" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D196" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E196" t="s">
         <v>472</v>
-      </c>
-      <c r="D196" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="E196" t="s">
-        <v>473</v>
       </c>
       <c r="F196" s="33" t="s">
         <v>62</v>
@@ -9979,9 +9979,9 @@
         <v>61</v>
       </c>
       <c r="N196" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P196" s="64">
+        <v>470</v>
+      </c>
+      <c r="P196" s="38">
         <v>814.5</v>
       </c>
       <c r="Q196">
@@ -9996,13 +9996,13 @@
         <v>335</v>
       </c>
       <c r="C197" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D197" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E197" t="s">
         <v>472</v>
-      </c>
-      <c r="D197" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="E197" t="s">
-        <v>473</v>
       </c>
       <c r="F197" s="33" t="s">
         <v>62</v>
@@ -10029,9 +10029,9 @@
         <v>61</v>
       </c>
       <c r="N197" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P197" s="64">
+        <v>470</v>
+      </c>
+      <c r="P197" s="38">
         <v>801.8</v>
       </c>
       <c r="Q197">
@@ -10046,13 +10046,13 @@
         <v>336</v>
       </c>
       <c r="C198" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E198" t="s">
         <v>472</v>
-      </c>
-      <c r="D198" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="E198" t="s">
-        <v>473</v>
       </c>
       <c r="F198" s="33" t="s">
         <v>62</v>
@@ -10079,9 +10079,9 @@
         <v>61</v>
       </c>
       <c r="N198" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="P198" s="64">
+        <v>470</v>
+      </c>
+      <c r="P198" s="38">
         <v>792.2</v>
       </c>
       <c r="Q198">
@@ -10712,11 +10712,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10731,6 +10726,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/DatasetForML_Wang2023_Hardness_CompilationAndOriginal.xlsx
+++ b/DatasetForML_Wang2023_Hardness_CompilationAndOriginal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA7AEA-1DC3-294E-B242-28E497A06987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F4C1A-2F20-934E-BD52-0511680CA093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1358,82 +1358,7 @@
     <t>189</t>
   </si>
   <si>
-    <t>10.1016/j.mattod.2015.11.026</t>
-  </si>
-  <si>
     <t>10.1002/adem.200300567</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16791-8</t>
-  </si>
-  <si>
-    <t>10.1016/j.pmatsci.2022.101018</t>
-  </si>
-  <si>
-    <t>10.1007/s11837-013-0761-6</t>
-  </si>
-  <si>
-    <t>10.1039/D1EE00505G</t>
-  </si>
-  <si>
-    <t>10.1016/j.pmatsci.2013.10.001</t>
-  </si>
-  <si>
-    <t>10.1002/adem.200700240</t>
-  </si>
-  <si>
-    <t>10.1007/978-3-319-27013-5_6</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2016.08.081</t>
-  </si>
-  <si>
-    <t>10.1038/ncomms7529</t>
-  </si>
-  <si>
-    <t>10.1063/1.3587228</t>
-  </si>
-  <si>
-    <t>10.1177/09544062211008935</t>
-  </si>
-  <si>
-    <t>10.1007/s11837-012-0365-6</t>
-  </si>
-  <si>
-    <t>10.1016/j.matlet.2021.130368</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-021-24523-9</t>
-  </si>
-  <si>
-    <t>10.1557/s43577-022-00284-8</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2017.08.045</t>
-  </si>
-  <si>
-    <t>10.1016/j.intermet.2016.12.007</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2018.07.042</t>
-  </si>
-  <si>
-    <t>10.1002/adma.202004029</t>
-  </si>
-  <si>
-    <t>10.1126/sciadv.aaz4748</t>
-  </si>
-  <si>
-    <t>10.1103/PhysRevLett.87.156401</t>
-  </si>
-  <si>
-    <t>10.1038/s41524-019-0151-x</t>
-  </si>
-  <si>
-    <t>10.1103/PhysRevLett.116.105501</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-018-03846-0</t>
   </si>
   <si>
     <t>HV</t>
@@ -1584,12 +1509,87 @@
   <si>
     <t>10.1007/s11837-013-0776-z</t>
   </si>
+  <si>
+    <t>10.1016/j.msea.2010.05.052</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2016.11.376</t>
+  </si>
+  <si>
+    <t>10.1016/j.matchemphys.2019.122555</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2019.04.104</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2012.03.005</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2009.08.090</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmmm.2014.07.023</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2018.07.069</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2013.01.007</t>
+  </si>
+  <si>
+    <t>10.1016/j.matlet.2006.03.140</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2012.11.074</t>
+  </si>
+  <si>
+    <t>10.1179/143307511x12998222918796</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2010.03.111</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2011.11.063</t>
+  </si>
+  <si>
+    <t>10.11890/1006-7191-122-124</t>
+  </si>
+  <si>
+    <t>10.1016/j.actamat.2013.09.037</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2015.07.088</t>
+  </si>
+  <si>
+    <t>10.1016/j.scriptamat.2016.06.019</t>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2008.07.124</t>
+  </si>
+  <si>
+    <t>10.3166/acsm.31.669-684</t>
+  </si>
+  <si>
+    <t>10.1016/j.intermet.2016.09.003</t>
+  </si>
+  <si>
+    <t>10.1016/j.scriptamat.2020.09.039</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2019.05.056</t>
+  </si>
+  <si>
+    <t>10.1016/j.msea.2007.01.122</t>
+  </si>
+  <si>
+    <t>10.1016/j.actamat.2019.03.010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1673,6 +1673,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2158,7 +2164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2266,33 +2272,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2344,6 +2323,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2627,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R165" sqref="R165"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N205" sqref="N205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2664,21 +2671,21 @@
       <c r="B2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2688,17 +2695,17 @@
       <c r="B3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,43 +2723,43 @@
       <c r="B5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="57" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2763,19 +2770,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="40"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2820,12 +2827,12 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="59"/>
       <c r="P7" s="31" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>40</v>
@@ -2833,35 +2840,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="63"/>
+      <c r="N8" s="54"/>
       <c r="O8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="62"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2952,10 +2959,10 @@
         <v>42</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N10" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="P10" s="38">
         <v>220</v>
@@ -2990,10 +2997,10 @@
         <v>42</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N11" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="P11" s="38">
         <v>412</v>
@@ -3028,10 +3035,10 @@
         <v>42</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N12" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="P12" s="38">
         <v>166</v>
@@ -3066,10 +3073,10 @@
         <v>42</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N13" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="38">
@@ -3105,10 +3112,10 @@
         <v>42</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N14" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P14" s="38">
         <v>359.6</v>
@@ -3143,10 +3150,10 @@
         <v>42</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N15" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P15" s="38">
         <v>371.6</v>
@@ -3181,10 +3188,10 @@
         <v>42</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N16" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P16" s="38">
         <v>386</v>
@@ -3219,10 +3226,10 @@
         <v>42</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N17" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P17" s="38">
         <v>118</v>
@@ -3257,10 +3264,10 @@
         <v>42</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N18" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P18" s="38">
         <v>127</v>
@@ -3295,10 +3302,10 @@
         <v>42</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N19" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P19" s="38">
         <v>382</v>
@@ -3333,10 +3340,10 @@
         <v>42</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N20" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P20" s="38">
         <v>527</v>
@@ -3371,10 +3378,10 @@
         <v>42</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N21" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P21" s="38">
         <v>482</v>
@@ -3409,10 +3416,10 @@
         <v>42</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N22" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P22" s="38">
         <v>509</v>
@@ -3447,10 +3454,10 @@
         <v>42</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N23" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P23" s="38">
         <v>131</v>
@@ -3485,10 +3492,10 @@
         <v>42</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N24" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P24" s="38">
         <v>388</v>
@@ -3523,10 +3530,10 @@
         <v>42</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N25" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P25" s="38">
         <v>538</v>
@@ -3561,10 +3568,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N26" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P26" s="38">
         <v>487</v>
@@ -3599,10 +3606,10 @@
         <v>42</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N27" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="P27" s="38">
         <v>135</v>
@@ -3637,10 +3644,10 @@
         <v>42</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N28" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="P28" s="38">
         <v>205</v>
@@ -3675,10 +3682,10 @@
         <v>42</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N29" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="P29" s="38">
         <v>380</v>
@@ -3713,10 +3720,10 @@
         <v>42</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N30" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P30" s="38">
         <v>150</v>
@@ -3751,10 +3758,10 @@
         <v>42</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N31" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P31" s="38">
         <v>300</v>
@@ -3789,10 +3796,10 @@
         <v>42</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N32" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P32" s="38">
         <v>420</v>
@@ -3827,10 +3834,10 @@
         <v>42</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N33" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P33" s="38">
         <v>238</v>
@@ -3865,10 +3872,10 @@
         <v>42</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N34" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P34" s="38">
         <v>278</v>
@@ -3903,10 +3910,10 @@
         <v>42</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N35" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P35" s="38">
         <v>392</v>
@@ -3941,10 +3948,10 @@
         <v>42</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N36" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P36" s="38">
         <v>521</v>
@@ -3979,10 +3986,10 @@
         <v>42</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N37" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P37" s="38">
         <v>546</v>
@@ -4017,10 +4024,10 @@
         <v>42</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N38" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P38" s="38">
         <v>550</v>
@@ -4055,10 +4062,10 @@
         <v>42</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N39" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P39" s="38">
         <v>544</v>
@@ -4093,10 +4100,10 @@
         <v>42</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N40" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P40" s="38">
         <v>567</v>
@@ -4131,10 +4138,10 @@
         <v>42</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N41" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P41" s="38">
         <v>576</v>
@@ -4169,10 +4176,10 @@
         <v>42</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N42" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P42" s="38">
         <v>593</v>
@@ -4207,10 +4214,10 @@
         <v>42</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N43" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P43" s="38">
         <v>473</v>
@@ -4245,10 +4252,10 @@
         <v>42</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N44" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P44" s="38">
         <v>367</v>
@@ -4283,10 +4290,10 @@
         <v>42</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N45" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P45" s="38">
         <v>458</v>
@@ -4321,10 +4328,10 @@
         <v>42</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N46" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P46" s="38">
         <v>418</v>
@@ -4359,10 +4366,10 @@
         <v>42</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N47" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P47" s="38">
         <v>423</v>
@@ -4397,10 +4404,10 @@
         <v>42</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N48" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P48" s="38">
         <v>208</v>
@@ -4435,10 +4442,10 @@
         <v>42</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="P49" s="38">
         <v>280</v>
@@ -4473,10 +4480,10 @@
         <v>42</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="P50" s="38">
         <v>580</v>
@@ -4511,10 +4518,10 @@
         <v>42</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="N51" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="N51" s="65" t="s">
+        <v>462</v>
       </c>
       <c r="P51" s="38">
         <v>450</v>
@@ -4549,10 +4556,10 @@
         <v>42</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="N52" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="N52" s="65" t="s">
+        <v>462</v>
       </c>
       <c r="P52" s="38">
         <v>304</v>
@@ -4587,10 +4594,10 @@
         <v>42</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N53" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="P53" s="38">
         <v>695</v>
@@ -4625,10 +4632,10 @@
         <v>42</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N54" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="P54" s="38">
         <v>740</v>
@@ -4663,10 +4670,10 @@
         <v>42</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N55" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P55" s="38">
         <v>479</v>
@@ -4701,10 +4708,10 @@
         <v>42</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N56" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P56" s="38">
         <v>494</v>
@@ -4739,10 +4746,10 @@
         <v>42</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N57" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P57" s="38">
         <v>486</v>
@@ -4777,10 +4784,10 @@
         <v>42</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N58" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P58" s="38">
         <v>408</v>
@@ -4815,10 +4822,10 @@
         <v>42</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N59" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P59" s="38">
         <v>370</v>
@@ -4853,10 +4860,10 @@
         <v>42</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N60" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P60" s="38">
         <v>166</v>
@@ -4891,10 +4898,10 @@
         <v>42</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N61" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P61" s="38">
         <v>536</v>
@@ -4929,10 +4936,10 @@
         <v>42</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N62" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P62" s="38">
         <v>531</v>
@@ -4967,10 +4974,10 @@
         <v>42</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N63" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P63" s="38">
         <v>545</v>
@@ -5005,10 +5012,10 @@
         <v>42</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N64" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P64" s="38">
         <v>366</v>
@@ -5043,10 +5050,10 @@
         <v>42</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N65" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P65" s="38">
         <v>249</v>
@@ -5081,10 +5088,10 @@
         <v>42</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N66" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P66" s="38">
         <v>178.6</v>
@@ -5119,10 +5126,10 @@
         <v>42</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P67" s="38">
         <v>169.7</v>
@@ -5157,10 +5164,10 @@
         <v>42</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N68" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P68" s="38">
         <v>182</v>
@@ -5195,10 +5202,10 @@
         <v>42</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N69" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P69" s="38">
         <v>182.5</v>
@@ -5233,10 +5240,10 @@
         <v>42</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N70" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P70" s="38">
         <v>218.9</v>
@@ -5271,10 +5278,10 @@
         <v>42</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N71" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P71" s="38">
         <v>277.8</v>
@@ -5309,10 +5316,10 @@
         <v>42</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N72" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P72" s="38">
         <v>402.6</v>
@@ -5346,10 +5353,10 @@
         <v>42</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N73" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P73" s="38">
         <v>484.1</v>
@@ -5383,10 +5390,10 @@
         <v>42</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N74" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P74" s="38">
         <v>528.29999999999995</v>
@@ -5420,10 +5427,10 @@
         <v>42</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N75" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P75" s="38">
         <v>538.1</v>
@@ -5457,10 +5464,10 @@
         <v>42</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N76" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P76" s="38">
         <v>530.29999999999995</v>
@@ -5494,10 +5501,10 @@
         <v>42</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N77" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P77" s="38">
         <v>534.20000000000005</v>
@@ -5531,10 +5538,10 @@
         <v>42</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N78" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P78" s="38">
         <v>537.1</v>
@@ -5568,10 +5575,10 @@
         <v>42</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N79" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="P79" s="38">
         <v>168</v>
@@ -5605,10 +5612,10 @@
         <v>42</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N80" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P80" s="38">
         <v>273</v>
@@ -5642,10 +5649,10 @@
         <v>42</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N81" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P81" s="38">
         <v>475</v>
@@ -5679,10 +5686,10 @@
         <v>42</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N82" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P82" s="38">
         <v>558</v>
@@ -5716,10 +5723,10 @@
         <v>42</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N83" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P83" s="38">
         <v>510</v>
@@ -5753,10 +5760,10 @@
         <v>42</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N84" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P84" s="38">
         <v>603</v>
@@ -5790,10 +5797,10 @@
         <v>42</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N85" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P85" s="38">
         <v>625</v>
@@ -5827,10 +5834,10 @@
         <v>42</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N86" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P86" s="38">
         <v>655</v>
@@ -5864,10 +5871,10 @@
         <v>42</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N87" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P87" s="38">
         <v>735</v>
@@ -5901,10 +5908,10 @@
         <v>42</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N88" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="P88" s="38">
         <v>152</v>
@@ -5938,10 +5945,10 @@
         <v>42</v>
       </c>
       <c r="M89" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="N89" t="s">
         <v>469</v>
-      </c>
-      <c r="N89" t="s">
-        <v>457</v>
       </c>
       <c r="P89" s="38">
         <v>286</v>
@@ -5975,10 +5982,10 @@
         <v>42</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N90" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P90" s="38">
         <v>358</v>
@@ -6012,10 +6019,10 @@
         <v>42</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N91" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P91" s="38">
         <v>586</v>
@@ -6049,10 +6056,10 @@
         <v>42</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N92" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P92" s="38">
         <v>601</v>
@@ -6086,10 +6093,10 @@
         <v>42</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N93" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P93" s="38">
         <v>295</v>
@@ -6123,10 +6130,10 @@
         <v>42</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N94" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P94" s="38">
         <v>584</v>
@@ -6160,10 +6167,10 @@
         <v>42</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N95" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P95" s="38">
         <v>310</v>
@@ -6197,10 +6204,10 @@
         <v>42</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N96" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P96" s="38">
         <v>451</v>
@@ -6234,10 +6241,10 @@
         <v>42</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N97" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P97" s="38">
         <v>546</v>
@@ -6271,10 +6278,10 @@
         <v>42</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N98" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P98" s="38">
         <v>607</v>
@@ -6308,10 +6315,10 @@
         <v>42</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N99" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P99" s="38">
         <v>537</v>
@@ -6345,10 +6352,10 @@
         <v>42</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N100" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P100" s="38">
         <v>514</v>
@@ -6382,10 +6389,10 @@
         <v>42</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N101" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P101" s="38">
         <v>604</v>
@@ -6419,10 +6426,10 @@
         <v>42</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N102" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P102" s="38">
         <v>639</v>
@@ -6456,10 +6463,10 @@
         <v>42</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N103" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P103" s="38">
         <v>534</v>
@@ -6493,10 +6500,10 @@
         <v>42</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N104" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P104" s="38">
         <v>609</v>
@@ -6530,10 +6537,10 @@
         <v>42</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N105" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P105" s="38">
         <v>551</v>
@@ -6567,10 +6574,10 @@
         <v>42</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N106" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P106" s="38">
         <v>586</v>
@@ -6604,10 +6611,10 @@
         <v>42</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N107" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P107" s="38">
         <v>225</v>
@@ -6641,10 +6648,10 @@
         <v>42</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N108" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P108" s="38">
         <v>146</v>
@@ -6678,10 +6685,10 @@
         <v>42</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N109" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P109" s="38">
         <v>150</v>
@@ -6715,10 +6722,10 @@
         <v>42</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N110" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P110" s="38">
         <v>158</v>
@@ -6752,10 +6759,10 @@
         <v>42</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N111" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P111" s="38">
         <v>175</v>
@@ -6789,10 +6796,10 @@
         <v>42</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N112" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P112" s="38">
         <v>154</v>
@@ -6826,10 +6833,10 @@
         <v>42</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N113" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P113" s="38">
         <v>153</v>
@@ -6863,10 +6870,10 @@
         <v>42</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N114" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P114" s="38">
         <v>158</v>
@@ -6900,10 +6907,10 @@
         <v>42</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N115" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P115" s="38">
         <v>161</v>
@@ -6937,10 +6944,10 @@
         <v>42</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N116" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P116" s="38">
         <v>172</v>
@@ -6974,10 +6981,10 @@
         <v>42</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N117" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P117" s="38">
         <v>183</v>
@@ -7011,10 +7018,10 @@
         <v>42</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N118" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P118" s="38">
         <v>182</v>
@@ -7048,10 +7055,10 @@
         <v>42</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N119" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P119" s="38">
         <v>172</v>
@@ -7085,10 +7092,10 @@
         <v>42</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N120" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P120" s="38">
         <v>157</v>
@@ -7122,10 +7129,10 @@
         <v>42</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N121" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P121" s="38">
         <v>170</v>
@@ -7159,10 +7166,10 @@
         <v>42</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N122" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P122" s="38">
         <v>167</v>
@@ -7196,10 +7203,10 @@
         <v>42</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N123" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P123" s="38">
         <v>158</v>
@@ -7233,10 +7240,10 @@
         <v>42</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N124" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P124" s="38">
         <v>140</v>
@@ -7270,10 +7277,10 @@
         <v>42</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N125" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P125" s="38">
         <v>125</v>
@@ -7307,10 +7314,10 @@
         <v>42</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N126" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P126" s="38">
         <v>242</v>
@@ -7344,10 +7351,10 @@
         <v>42</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N127" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P127" s="38">
         <v>265</v>
@@ -7381,10 +7388,10 @@
         <v>42</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N128" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P128" s="38">
         <v>335</v>
@@ -7418,10 +7425,10 @@
         <v>42</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N129" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P129" s="38">
         <v>170</v>
@@ -7455,10 +7462,10 @@
         <v>42</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N130" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P130" s="38">
         <v>503</v>
@@ -7492,10 +7499,10 @@
         <v>42</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N131" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P131" s="38">
         <v>555</v>
@@ -7529,10 +7536,10 @@
         <v>42</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N132" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P132" s="38">
         <v>548</v>
@@ -7566,10 +7573,10 @@
         <v>42</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N133" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P133" s="38">
         <v>615</v>
@@ -7603,10 +7610,10 @@
         <v>42</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N134" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P134" s="38">
         <v>720</v>
@@ -7640,10 +7647,10 @@
         <v>42</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N135" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P135" s="38">
         <v>550</v>
@@ -7677,10 +7684,10 @@
         <v>42</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N136" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P136" s="38">
         <v>539</v>
@@ -7714,10 +7721,10 @@
         <v>42</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N137" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P137" s="38">
         <v>438</v>
@@ -7751,10 +7758,10 @@
         <v>42</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N138" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P138" s="38">
         <v>476</v>
@@ -7788,10 +7795,10 @@
         <v>42</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N139" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P139" s="38">
         <v>587</v>
@@ -7825,10 +7832,10 @@
         <v>42</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N140" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P140" s="38">
         <v>558</v>
@@ -7862,10 +7869,10 @@
         <v>42</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N141" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P141" s="38">
         <v>510</v>
@@ -7899,10 +7906,10 @@
         <v>42</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N142" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P142" s="38">
         <v>775</v>
@@ -7936,10 +7943,10 @@
         <v>42</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N143" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P143" s="38">
         <v>140</v>
@@ -7973,10 +7980,10 @@
         <v>42</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N144" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P144" s="38">
         <v>410</v>
@@ -8010,10 +8017,10 @@
         <v>42</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N145" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="P145" s="38">
         <v>510</v>
@@ -8047,10 +8054,10 @@
         <v>42</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N146" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="P146" s="38">
         <v>145</v>
@@ -8084,10 +8091,10 @@
         <v>42</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N147" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="P147" s="38">
         <v>359</v>
@@ -8121,10 +8128,10 @@
         <v>42</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N148" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P148" s="38">
         <v>396</v>
@@ -8158,10 +8165,10 @@
         <v>42</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N149" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P149" s="38">
         <v>271</v>
@@ -8195,10 +8202,10 @@
         <v>42</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N150" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P150" s="38">
         <v>406</v>
@@ -8232,10 +8239,10 @@
         <v>42</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N151" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P151" s="38">
         <v>481</v>
@@ -8269,10 +8276,10 @@
         <v>42</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N152" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P152" s="38">
         <v>661</v>
@@ -8306,10 +8313,10 @@
         <v>42</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N153" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P153" s="38">
         <v>240</v>
@@ -8343,10 +8350,10 @@
         <v>42</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N154" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P154" s="38">
         <v>328</v>
@@ -8380,10 +8387,10 @@
         <v>42</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N155" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P155" s="38">
         <v>379</v>
@@ -8417,10 +8424,10 @@
         <v>42</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N156" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P156" s="38">
         <v>481</v>
@@ -8454,10 +8461,10 @@
         <v>42</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N157" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P157" s="38">
         <v>484</v>
@@ -8491,10 +8498,10 @@
         <v>42</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N158" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P158" s="38">
         <v>740</v>
@@ -8528,10 +8535,10 @@
         <v>42</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N159" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P159" s="38">
         <v>169</v>
@@ -8565,10 +8572,10 @@
         <v>42</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N160" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P160" s="38">
         <v>200</v>
@@ -8602,10 +8609,10 @@
         <v>42</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N161" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P161" s="38">
         <v>240</v>
@@ -8639,10 +8646,10 @@
         <v>42</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N162" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P162" s="38">
         <v>291</v>
@@ -8676,10 +8683,10 @@
         <v>42</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N163" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P163" s="38">
         <v>322</v>
@@ -8713,10 +8720,10 @@
         <v>42</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N164" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P164" s="38">
         <v>338</v>
@@ -8750,10 +8757,10 @@
         <v>42</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N165" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P165" s="38">
         <v>389</v>
@@ -8787,10 +8794,10 @@
         <v>42</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N166" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P166" s="38">
         <v>522</v>
@@ -8824,10 +8831,10 @@
         <v>42</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N167" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P167" s="38">
         <v>572</v>
@@ -8861,10 +8868,10 @@
         <v>42</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N168" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="P168" s="38">
         <v>600</v>
@@ -8898,10 +8905,10 @@
         <v>42</v>
       </c>
       <c r="M169" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N169" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P169" s="38">
         <v>154</v>
@@ -8935,10 +8942,10 @@
         <v>42</v>
       </c>
       <c r="M170" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N170" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="P170" s="38">
         <v>419</v>
@@ -8972,10 +8979,10 @@
         <v>42</v>
       </c>
       <c r="M171" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N171" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P171" s="38">
         <v>764</v>
@@ -9009,10 +9016,10 @@
         <v>42</v>
       </c>
       <c r="M172" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N172" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P172" s="38">
         <v>591</v>
@@ -9046,10 +9053,10 @@
         <v>42</v>
       </c>
       <c r="M173" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N173" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P173" s="38">
         <v>701</v>
@@ -9083,10 +9090,10 @@
         <v>42</v>
       </c>
       <c r="M174" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N174" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P174" s="38">
         <v>768</v>
@@ -9120,10 +9127,10 @@
         <v>42</v>
       </c>
       <c r="M175" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N175" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P175" s="38">
         <v>702</v>
@@ -9157,10 +9164,10 @@
         <v>42</v>
       </c>
       <c r="M176" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N176" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P176" s="38">
         <v>694</v>
@@ -9194,10 +9201,10 @@
         <v>42</v>
       </c>
       <c r="M177" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N177" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P177" s="38">
         <v>149</v>
@@ -9231,10 +9238,10 @@
         <v>42</v>
       </c>
       <c r="M178" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N178" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P178" s="38">
         <v>229</v>
@@ -9268,10 +9275,10 @@
         <v>42</v>
       </c>
       <c r="M179" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N179" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P179" s="38">
         <v>459</v>
@@ -9305,10 +9312,10 @@
         <v>42</v>
       </c>
       <c r="M180" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N180" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P180" s="38">
         <v>469</v>
@@ -9342,10 +9349,10 @@
         <v>42</v>
       </c>
       <c r="M181" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N181" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P181" s="38">
         <v>483</v>
@@ -9379,10 +9386,10 @@
         <v>42</v>
       </c>
       <c r="M182" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N182" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P182" s="38">
         <v>472</v>
@@ -9416,10 +9423,10 @@
         <v>42</v>
       </c>
       <c r="M183" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N183" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P183" s="38">
         <v>454</v>
@@ -9453,10 +9460,10 @@
         <v>42</v>
       </c>
       <c r="M184" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N184" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P184" s="38">
         <v>441</v>
@@ -9490,10 +9497,10 @@
         <v>42</v>
       </c>
       <c r="M185" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N185" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P185" s="38">
         <v>495</v>
@@ -9527,10 +9534,10 @@
         <v>42</v>
       </c>
       <c r="M186" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N186" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P186" s="38">
         <v>477</v>
@@ -9564,10 +9571,10 @@
         <v>42</v>
       </c>
       <c r="M187" s="20" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="N187" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P187" s="38">
         <v>469</v>
@@ -9582,7 +9589,7 @@
       </c>
       <c r="C188" s="34"/>
       <c r="D188" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>62</v>
@@ -9609,7 +9616,7 @@
         <v>61</v>
       </c>
       <c r="N188" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P188" s="38">
         <v>785.6</v>
@@ -9627,7 +9634,7 @@
       </c>
       <c r="C189" s="34"/>
       <c r="D189" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>62</v>
@@ -9654,7 +9661,7 @@
         <v>61</v>
       </c>
       <c r="N189" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P189" s="38">
         <v>771.1</v>
@@ -9672,7 +9679,7 @@
       </c>
       <c r="C190" s="34"/>
       <c r="D190" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F190" s="33" t="s">
         <v>62</v>
@@ -9699,7 +9706,7 @@
         <v>61</v>
       </c>
       <c r="N190" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P190" s="38">
         <v>783.7</v>
@@ -9717,7 +9724,7 @@
       </c>
       <c r="C191" s="34"/>
       <c r="D191" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F191" s="33" t="s">
         <v>62</v>
@@ -9744,7 +9751,7 @@
         <v>61</v>
       </c>
       <c r="N191" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P191" s="38">
         <v>771.9</v>
@@ -9762,7 +9769,7 @@
       </c>
       <c r="C192" s="34"/>
       <c r="D192" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F192" s="33" t="s">
         <v>62</v>
@@ -9789,7 +9796,7 @@
         <v>61</v>
       </c>
       <c r="N192" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P192" s="38">
         <v>797.1</v>
@@ -9807,7 +9814,7 @@
       </c>
       <c r="C193" s="34"/>
       <c r="D193" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F193" s="33" t="s">
         <v>62</v>
@@ -9834,7 +9841,7 @@
         <v>61</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P193" s="38">
         <v>792.2</v>
@@ -9852,7 +9859,7 @@
       </c>
       <c r="C194" s="34"/>
       <c r="D194" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F194" s="33" t="s">
         <v>62</v>
@@ -9879,7 +9886,7 @@
         <v>61</v>
       </c>
       <c r="N194" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P194" s="38">
         <v>804.3</v>
@@ -9896,13 +9903,13 @@
         <v>333</v>
       </c>
       <c r="C195" s="34" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D195" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E195" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F195" s="33" t="s">
         <v>62</v>
@@ -9929,7 +9936,7 @@
         <v>61</v>
       </c>
       <c r="N195" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P195" s="38">
         <v>815.4</v>
@@ -9946,13 +9953,13 @@
         <v>334</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D196" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E196" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F196" s="33" t="s">
         <v>62</v>
@@ -9979,7 +9986,7 @@
         <v>61</v>
       </c>
       <c r="N196" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P196" s="38">
         <v>814.5</v>
@@ -9996,13 +10003,13 @@
         <v>335</v>
       </c>
       <c r="C197" s="34" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D197" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E197" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F197" s="33" t="s">
         <v>62</v>
@@ -10029,7 +10036,7 @@
         <v>61</v>
       </c>
       <c r="N197" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P197" s="38">
         <v>801.8</v>
@@ -10046,13 +10053,13 @@
         <v>336</v>
       </c>
       <c r="C198" s="34" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D198" s="34" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E198" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F198" s="33" t="s">
         <v>62</v>
@@ -10079,7 +10086,7 @@
         <v>61</v>
       </c>
       <c r="N198" s="20" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="P198" s="38">
         <v>792.2</v>
@@ -10712,6 +10719,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10726,11 +10738,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/DatasetForML_Wang2023_Hardness_CompilationAndOriginal.xlsx
+++ b/DatasetForML_Wang2023_Hardness_CompilationAndOriginal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-amkrajewski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F4C1A-2F20-934E-BD52-0511680CA093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8342B23F-E61E-3548-9DA7-88F1E1D33233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,13 +44,7 @@
     <t>Email:</t>
   </si>
   <si>
-    <t>Direct:</t>
-  </si>
-  <si>
     <t>HandFetched:</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>Metadata</t>
@@ -1583,6 +1577,12 @@
   </si>
   <si>
     <t>10.1016/j.actamat.2019.03.010</t>
+  </si>
+  <si>
+    <t>ParentDatabase:</t>
+  </si>
+  <si>
+    <t>WANG2023</t>
   </si>
 </sst>
 </file>
@@ -2272,6 +2272,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2323,34 +2351,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:T252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N205" sqref="N205"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2661,7 +2661,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2669,23 +2669,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2693,258 +2693,258 @@
         <v>1</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>474</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>4</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>48</v>
+      <c r="K5" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="58"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="6">
+        <v>298</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="6">
-        <v>298</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="59"/>
+        <v>21</v>
+      </c>
+      <c r="O7" s="42"/>
       <c r="P7" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="54"/>
+      <c r="B8" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="64"/>
       <c r="O8" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
+        <v>45</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>15</v>
-      </c>
       <c r="N9" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O9" s="30"/>
       <c r="P9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="S9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="T9" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="20"/>
       <c r="F10" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="35">
@@ -2956,13 +2956,13 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P10" s="38">
         <v>220</v>
@@ -2970,19 +2970,19 @@
     </row>
     <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="20"/>
       <c r="F11" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="35">
@@ -2994,13 +2994,13 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P11" s="38">
         <v>412</v>
@@ -3008,19 +3008,19 @@
     </row>
     <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="20"/>
       <c r="F12" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="35">
@@ -3032,13 +3032,13 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P12" s="38">
         <v>166</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="20"/>
       <c r="F13" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="35">
@@ -3070,13 +3070,13 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="38">
@@ -3085,19 +3085,19 @@
     </row>
     <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="20"/>
       <c r="F14" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="35">
@@ -3109,13 +3109,13 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P14" s="38">
         <v>359.6</v>
@@ -3123,19 +3123,19 @@
     </row>
     <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="20"/>
       <c r="F15" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="35">
@@ -3147,13 +3147,13 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P15" s="38">
         <v>371.6</v>
@@ -3161,19 +3161,19 @@
     </row>
     <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="20"/>
       <c r="F16" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="35">
@@ -3185,13 +3185,13 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P16" s="38">
         <v>386</v>
@@ -3199,19 +3199,19 @@
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="20"/>
       <c r="F17" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="35">
@@ -3223,13 +3223,13 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P17" s="38">
         <v>118</v>
@@ -3237,19 +3237,19 @@
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="20"/>
       <c r="F18" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="35">
@@ -3261,13 +3261,13 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P18" s="38">
         <v>127</v>
@@ -3275,19 +3275,19 @@
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="20"/>
       <c r="F19" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="35">
@@ -3299,13 +3299,13 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P19" s="38">
         <v>382</v>
@@ -3313,19 +3313,19 @@
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="20"/>
       <c r="F20" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="35">
@@ -3337,13 +3337,13 @@
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P20" s="38">
         <v>527</v>
@@ -3351,19 +3351,19 @@
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="20"/>
       <c r="F21" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="35">
@@ -3375,13 +3375,13 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P21" s="38">
         <v>482</v>
@@ -3389,19 +3389,19 @@
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="20"/>
       <c r="F22" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="35">
@@ -3413,13 +3413,13 @@
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P22" s="38">
         <v>509</v>
@@ -3427,19 +3427,19 @@
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="20"/>
       <c r="F23" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="35">
@@ -3451,13 +3451,13 @@
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P23" s="38">
         <v>131</v>
@@ -3465,19 +3465,19 @@
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="20"/>
       <c r="F24" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="35">
@@ -3489,13 +3489,13 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P24" s="38">
         <v>388</v>
@@ -3503,19 +3503,19 @@
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="20"/>
       <c r="F25" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="35">
@@ -3527,13 +3527,13 @@
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P25" s="38">
         <v>538</v>
@@ -3541,19 +3541,19 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="20"/>
       <c r="F26" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="35">
@@ -3565,13 +3565,13 @@
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P26" s="38">
         <v>487</v>
@@ -3579,19 +3579,19 @@
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="20"/>
       <c r="F27" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="35">
@@ -3603,13 +3603,13 @@
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P27" s="38">
         <v>135</v>
@@ -3617,19 +3617,19 @@
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="20"/>
       <c r="F28" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="35">
@@ -3641,13 +3641,13 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P28" s="38">
         <v>205</v>
@@ -3655,19 +3655,19 @@
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="20"/>
       <c r="F29" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="35">
@@ -3679,13 +3679,13 @@
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P29" s="38">
         <v>380</v>
@@ -3693,19 +3693,19 @@
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="20"/>
       <c r="F30" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="35">
@@ -3717,13 +3717,13 @@
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P30" s="38">
         <v>150</v>
@@ -3731,19 +3731,19 @@
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="20"/>
       <c r="F31" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="35">
@@ -3755,13 +3755,13 @@
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P31" s="38">
         <v>300</v>
@@ -3769,19 +3769,19 @@
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="20"/>
       <c r="F32" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="35">
@@ -3793,13 +3793,13 @@
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P32" s="38">
         <v>420</v>
@@ -3807,19 +3807,19 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="20"/>
       <c r="F33" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="35">
@@ -3831,13 +3831,13 @@
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P33" s="38">
         <v>238</v>
@@ -3845,19 +3845,19 @@
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="20"/>
       <c r="F34" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="35">
@@ -3869,13 +3869,13 @@
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P34" s="38">
         <v>278</v>
@@ -3883,19 +3883,19 @@
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="20"/>
       <c r="F35" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="35">
@@ -3907,13 +3907,13 @@
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P35" s="38">
         <v>392</v>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="20"/>
       <c r="F36" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="35">
@@ -3945,13 +3945,13 @@
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P36" s="38">
         <v>521</v>
@@ -3959,19 +3959,19 @@
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="20"/>
       <c r="F37" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="35">
@@ -3983,13 +3983,13 @@
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P37" s="38">
         <v>546</v>
@@ -3997,19 +3997,19 @@
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="20"/>
       <c r="F38" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="35">
@@ -4021,13 +4021,13 @@
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P38" s="38">
         <v>550</v>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="20"/>
       <c r="F39" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="35">
@@ -4059,13 +4059,13 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P39" s="38">
         <v>544</v>
@@ -4073,19 +4073,19 @@
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="20"/>
       <c r="F40" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="35">
@@ -4097,13 +4097,13 @@
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N40" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P40" s="38">
         <v>567</v>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="20"/>
       <c r="F41" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="35">
@@ -4135,13 +4135,13 @@
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P41" s="38">
         <v>576</v>
@@ -4149,19 +4149,19 @@
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="20"/>
       <c r="F42" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="35">
@@ -4173,13 +4173,13 @@
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P42" s="38">
         <v>593</v>
@@ -4187,19 +4187,19 @@
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="20"/>
       <c r="F43" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="35">
@@ -4211,13 +4211,13 @@
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N43" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P43" s="38">
         <v>473</v>
@@ -4225,19 +4225,19 @@
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="20"/>
       <c r="F44" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="35">
@@ -4249,13 +4249,13 @@
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P44" s="38">
         <v>367</v>
@@ -4263,19 +4263,19 @@
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="20"/>
       <c r="F45" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="35">
@@ -4287,13 +4287,13 @@
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N45" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P45" s="38">
         <v>458</v>
@@ -4301,19 +4301,19 @@
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="20"/>
       <c r="F46" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="35">
@@ -4325,13 +4325,13 @@
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N46" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P46" s="38">
         <v>418</v>
@@ -4339,19 +4339,19 @@
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="20"/>
       <c r="F47" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H47" s="33"/>
       <c r="I47" s="35">
@@ -4363,13 +4363,13 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N47" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P47" s="38">
         <v>423</v>
@@ -4377,19 +4377,19 @@
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="20"/>
       <c r="F48" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H48" s="33"/>
       <c r="I48" s="35">
@@ -4401,13 +4401,13 @@
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N48" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P48" s="38">
         <v>208</v>
@@ -4415,19 +4415,19 @@
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="20"/>
       <c r="F49" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H49" s="33"/>
       <c r="I49" s="35">
@@ -4439,13 +4439,13 @@
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P49" s="38">
         <v>280</v>
@@ -4453,19 +4453,19 @@
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="20"/>
       <c r="F50" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H50" s="33"/>
       <c r="I50" s="35">
@@ -4477,13 +4477,13 @@
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P50" s="38">
         <v>580</v>
@@ -4491,19 +4491,19 @@
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="20"/>
       <c r="F51" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H51" s="33"/>
       <c r="I51" s="35">
@@ -4515,13 +4515,13 @@
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="N51" s="65" t="s">
-        <v>462</v>
+        <v>442</v>
+      </c>
+      <c r="N51" s="39" t="s">
+        <v>460</v>
       </c>
       <c r="P51" s="38">
         <v>450</v>
@@ -4529,19 +4529,19 @@
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="20"/>
       <c r="F52" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H52" s="33"/>
       <c r="I52" s="35">
@@ -4553,13 +4553,13 @@
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="N52" s="65" t="s">
-        <v>462</v>
+        <v>442</v>
+      </c>
+      <c r="N52" s="39" t="s">
+        <v>460</v>
       </c>
       <c r="P52" s="38">
         <v>304</v>
@@ -4567,19 +4567,19 @@
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="20"/>
       <c r="F53" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H53" s="33"/>
       <c r="I53" s="35">
@@ -4591,13 +4591,13 @@
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N53" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P53" s="38">
         <v>695</v>
@@ -4605,19 +4605,19 @@
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="20"/>
       <c r="F54" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H54" s="33"/>
       <c r="I54" s="35">
@@ -4629,13 +4629,13 @@
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N54" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P54" s="38">
         <v>740</v>
@@ -4643,19 +4643,19 @@
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="20"/>
       <c r="F55" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H55" s="33"/>
       <c r="I55" s="35">
@@ -4667,13 +4667,13 @@
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N55" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P55" s="38">
         <v>479</v>
@@ -4681,19 +4681,19 @@
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="20"/>
       <c r="F56" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H56" s="33"/>
       <c r="I56" s="35">
@@ -4705,13 +4705,13 @@
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N56" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P56" s="38">
         <v>494</v>
@@ -4719,19 +4719,19 @@
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="20"/>
       <c r="F57" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="35">
@@ -4743,13 +4743,13 @@
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P57" s="38">
         <v>486</v>
@@ -4757,19 +4757,19 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="20"/>
       <c r="F58" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="35">
@@ -4781,13 +4781,13 @@
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N58" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P58" s="38">
         <v>408</v>
@@ -4795,19 +4795,19 @@
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="20"/>
       <c r="F59" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="35">
@@ -4819,13 +4819,13 @@
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P59" s="38">
         <v>370</v>
@@ -4833,19 +4833,19 @@
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="20"/>
       <c r="F60" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H60" s="33"/>
       <c r="I60" s="35">
@@ -4857,13 +4857,13 @@
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N60" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P60" s="38">
         <v>166</v>
@@ -4871,19 +4871,19 @@
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="20"/>
       <c r="F61" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H61" s="33"/>
       <c r="I61" s="35">
@@ -4895,13 +4895,13 @@
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N61" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P61" s="38">
         <v>536</v>
@@ -4909,19 +4909,19 @@
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="20"/>
       <c r="F62" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="35">
@@ -4933,13 +4933,13 @@
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P62" s="38">
         <v>531</v>
@@ -4947,19 +4947,19 @@
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="20"/>
       <c r="F63" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="35">
@@ -4971,13 +4971,13 @@
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N63" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P63" s="38">
         <v>545</v>
@@ -4985,19 +4985,19 @@
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="20"/>
       <c r="F64" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="35">
@@ -5009,13 +5009,13 @@
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N64" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P64" s="38">
         <v>366</v>
@@ -5023,19 +5023,19 @@
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="20"/>
       <c r="F65" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H65" s="33"/>
       <c r="I65" s="35">
@@ -5047,13 +5047,13 @@
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N65" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P65" s="38">
         <v>249</v>
@@ -5061,19 +5061,19 @@
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="20"/>
       <c r="F66" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H66" s="33"/>
       <c r="I66" s="35">
@@ -5085,13 +5085,13 @@
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P66" s="38">
         <v>178.6</v>
@@ -5099,19 +5099,19 @@
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="20"/>
       <c r="F67" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H67" s="33"/>
       <c r="I67" s="35">
@@ -5123,13 +5123,13 @@
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N67" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P67" s="38">
         <v>169.7</v>
@@ -5137,19 +5137,19 @@
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="20"/>
       <c r="F68" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H68" s="33"/>
       <c r="I68" s="35">
@@ -5161,13 +5161,13 @@
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N68" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P68" s="38">
         <v>182</v>
@@ -5175,19 +5175,19 @@
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="20"/>
       <c r="F69" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H69" s="33"/>
       <c r="I69" s="35">
@@ -5199,13 +5199,13 @@
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N69" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P69" s="38">
         <v>182.5</v>
@@ -5213,19 +5213,19 @@
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="20"/>
       <c r="F70" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H70" s="33"/>
       <c r="I70" s="35">
@@ -5237,13 +5237,13 @@
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P70" s="38">
         <v>218.9</v>
@@ -5251,19 +5251,19 @@
     </row>
     <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="20"/>
       <c r="F71" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="35">
@@ -5275,13 +5275,13 @@
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N71" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P71" s="38">
         <v>277.8</v>
@@ -5289,19 +5289,19 @@
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="20"/>
       <c r="F72" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H72" s="33"/>
       <c r="I72" s="35">
@@ -5313,13 +5313,13 @@
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N72" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P72" s="38">
         <v>402.6</v>
@@ -5327,18 +5327,18 @@
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="F73" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="35">
@@ -5350,13 +5350,13 @@
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N73" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P73" s="38">
         <v>484.1</v>
@@ -5364,18 +5364,18 @@
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="F74" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H74" s="34"/>
       <c r="I74" s="35">
@@ -5387,13 +5387,13 @@
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P74" s="38">
         <v>528.29999999999995</v>
@@ -5401,18 +5401,18 @@
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="F75" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H75" s="34"/>
       <c r="I75" s="35">
@@ -5424,13 +5424,13 @@
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N75" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P75" s="38">
         <v>538.1</v>
@@ -5438,18 +5438,18 @@
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="F76" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H76" s="34"/>
       <c r="I76" s="35">
@@ -5461,13 +5461,13 @@
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P76" s="38">
         <v>530.29999999999995</v>
@@ -5475,18 +5475,18 @@
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="F77" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H77" s="34"/>
       <c r="I77" s="35">
@@ -5498,13 +5498,13 @@
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N77" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P77" s="38">
         <v>534.20000000000005</v>
@@ -5512,18 +5512,18 @@
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="F78" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H78" s="34"/>
       <c r="I78" s="35">
@@ -5535,13 +5535,13 @@
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N78" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P78" s="38">
         <v>537.1</v>
@@ -5549,18 +5549,18 @@
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="F79" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="35">
@@ -5572,13 +5572,13 @@
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N79" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P79" s="38">
         <v>168</v>
@@ -5586,18 +5586,18 @@
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="F80" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G80" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H80" s="34"/>
       <c r="I80" s="35">
@@ -5609,13 +5609,13 @@
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N80" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P80" s="38">
         <v>273</v>
@@ -5623,18 +5623,18 @@
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="F81" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G81" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H81" s="34"/>
       <c r="I81" s="35">
@@ -5646,13 +5646,13 @@
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N81" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P81" s="38">
         <v>475</v>
@@ -5660,18 +5660,18 @@
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="F82" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H82" s="34"/>
       <c r="I82" s="35">
@@ -5683,13 +5683,13 @@
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N82" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P82" s="38">
         <v>558</v>
@@ -5697,18 +5697,18 @@
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="F83" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H83" s="34"/>
       <c r="I83" s="35">
@@ -5720,13 +5720,13 @@
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P83" s="38">
         <v>510</v>
@@ -5734,18 +5734,18 @@
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="F84" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H84" s="34"/>
       <c r="I84" s="35">
@@ -5757,13 +5757,13 @@
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N84" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P84" s="38">
         <v>603</v>
@@ -5771,18 +5771,18 @@
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="F85" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H85" s="34"/>
       <c r="I85" s="35">
@@ -5794,13 +5794,13 @@
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P85" s="38">
         <v>625</v>
@@ -5808,18 +5808,18 @@
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="F86" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H86" s="34"/>
       <c r="I86" s="35">
@@ -5831,13 +5831,13 @@
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N86" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P86" s="38">
         <v>655</v>
@@ -5845,18 +5845,18 @@
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
       <c r="F87" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="35">
@@ -5868,13 +5868,13 @@
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N87" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P87" s="38">
         <v>735</v>
@@ -5882,18 +5882,18 @@
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="F88" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H88" s="34"/>
       <c r="I88" s="35">
@@ -5905,13 +5905,13 @@
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N88" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P88" s="38">
         <v>152</v>
@@ -5919,18 +5919,18 @@
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="F89" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H89" s="34"/>
       <c r="I89" s="35">
@@ -5942,13 +5942,13 @@
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N89" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P89" s="38">
         <v>286</v>
@@ -5956,18 +5956,18 @@
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="F90" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H90" s="34"/>
       <c r="I90" s="35">
@@ -5979,13 +5979,13 @@
       </c>
       <c r="K90" s="32"/>
       <c r="L90" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N90" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P90" s="38">
         <v>358</v>
@@ -5993,18 +5993,18 @@
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="F91" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H91" s="34"/>
       <c r="I91" s="35">
@@ -6016,13 +6016,13 @@
       </c>
       <c r="K91" s="32"/>
       <c r="L91" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N91" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P91" s="38">
         <v>586</v>
@@ -6030,18 +6030,18 @@
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="F92" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H92" s="34"/>
       <c r="I92" s="35">
@@ -6053,13 +6053,13 @@
       </c>
       <c r="K92" s="32"/>
       <c r="L92" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N92" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P92" s="38">
         <v>601</v>
@@ -6067,18 +6067,18 @@
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="F93" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G93" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H93" s="34"/>
       <c r="I93" s="35">
@@ -6090,13 +6090,13 @@
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N93" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P93" s="38">
         <v>295</v>
@@ -6104,18 +6104,18 @@
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="F94" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H94" s="34"/>
       <c r="I94" s="35">
@@ -6127,13 +6127,13 @@
       </c>
       <c r="K94" s="32"/>
       <c r="L94" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N94" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P94" s="38">
         <v>584</v>
@@ -6141,18 +6141,18 @@
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="F95" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G95" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H95" s="34"/>
       <c r="I95" s="35">
@@ -6164,13 +6164,13 @@
       </c>
       <c r="K95" s="32"/>
       <c r="L95" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N95" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P95" s="38">
         <v>310</v>
@@ -6178,18 +6178,18 @@
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="F96" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H96" s="34"/>
       <c r="I96" s="35">
@@ -6201,13 +6201,13 @@
       </c>
       <c r="K96" s="32"/>
       <c r="L96" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N96" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P96" s="38">
         <v>451</v>
@@ -6215,18 +6215,18 @@
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
       <c r="F97" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H97" s="34"/>
       <c r="I97" s="35">
@@ -6238,13 +6238,13 @@
       </c>
       <c r="K97" s="32"/>
       <c r="L97" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N97" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P97" s="38">
         <v>546</v>
@@ -6252,18 +6252,18 @@
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="F98" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H98" s="34"/>
       <c r="I98" s="35">
@@ -6275,13 +6275,13 @@
       </c>
       <c r="K98" s="32"/>
       <c r="L98" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N98" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P98" s="38">
         <v>607</v>
@@ -6289,18 +6289,18 @@
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
       <c r="F99" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H99" s="34"/>
       <c r="I99" s="35">
@@ -6312,13 +6312,13 @@
       </c>
       <c r="K99" s="32"/>
       <c r="L99" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N99" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P99" s="38">
         <v>537</v>
@@ -6326,18 +6326,18 @@
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
       <c r="F100" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H100" s="34"/>
       <c r="I100" s="35">
@@ -6349,13 +6349,13 @@
       </c>
       <c r="K100" s="32"/>
       <c r="L100" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N100" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P100" s="38">
         <v>514</v>
@@ -6363,18 +6363,18 @@
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
       <c r="F101" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H101" s="34"/>
       <c r="I101" s="35">
@@ -6386,13 +6386,13 @@
       </c>
       <c r="K101" s="32"/>
       <c r="L101" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N101" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P101" s="38">
         <v>604</v>
@@ -6400,18 +6400,18 @@
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
       <c r="F102" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H102" s="34"/>
       <c r="I102" s="35">
@@ -6423,13 +6423,13 @@
       </c>
       <c r="K102" s="32"/>
       <c r="L102" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N102" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P102" s="38">
         <v>639</v>
@@ -6437,18 +6437,18 @@
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
       <c r="F103" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H103" s="34"/>
       <c r="I103" s="35">
@@ -6460,13 +6460,13 @@
       </c>
       <c r="K103" s="32"/>
       <c r="L103" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N103" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P103" s="38">
         <v>534</v>
@@ -6474,18 +6474,18 @@
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
       <c r="F104" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H104" s="34"/>
       <c r="I104" s="35">
@@ -6497,13 +6497,13 @@
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N104" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P104" s="38">
         <v>609</v>
@@ -6511,18 +6511,18 @@
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="F105" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H105" s="34"/>
       <c r="I105" s="35">
@@ -6534,13 +6534,13 @@
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N105" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P105" s="38">
         <v>551</v>
@@ -6548,18 +6548,18 @@
     </row>
     <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="F106" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H106" s="34"/>
       <c r="I106" s="35">
@@ -6571,13 +6571,13 @@
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N106" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P106" s="38">
         <v>586</v>
@@ -6585,18 +6585,18 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
       <c r="F107" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H107" s="34"/>
       <c r="I107" s="35">
@@ -6608,13 +6608,13 @@
       </c>
       <c r="K107" s="32"/>
       <c r="L107" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N107" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P107" s="38">
         <v>225</v>
@@ -6622,18 +6622,18 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="F108" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H108" s="34"/>
       <c r="I108" s="35">
@@ -6645,13 +6645,13 @@
       </c>
       <c r="K108" s="32"/>
       <c r="L108" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N108" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P108" s="38">
         <v>146</v>
@@ -6659,18 +6659,18 @@
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="F109" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H109" s="34"/>
       <c r="I109" s="35">
@@ -6682,13 +6682,13 @@
       </c>
       <c r="K109" s="32"/>
       <c r="L109" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N109" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P109" s="38">
         <v>150</v>
@@ -6696,18 +6696,18 @@
     </row>
     <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
       <c r="F110" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H110" s="34"/>
       <c r="I110" s="35">
@@ -6719,13 +6719,13 @@
       </c>
       <c r="K110" s="32"/>
       <c r="L110" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N110" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P110" s="38">
         <v>158</v>
@@ -6733,18 +6733,18 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
       <c r="F111" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H111" s="34"/>
       <c r="I111" s="35">
@@ -6756,13 +6756,13 @@
       </c>
       <c r="K111" s="32"/>
       <c r="L111" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N111" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P111" s="38">
         <v>175</v>
@@ -6770,18 +6770,18 @@
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="F112" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H112" s="34"/>
       <c r="I112" s="35">
@@ -6793,13 +6793,13 @@
       </c>
       <c r="K112" s="32"/>
       <c r="L112" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N112" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P112" s="38">
         <v>154</v>
@@ -6807,18 +6807,18 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="F113" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H113" s="34"/>
       <c r="I113" s="35">
@@ -6830,13 +6830,13 @@
       </c>
       <c r="K113" s="32"/>
       <c r="L113" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N113" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P113" s="38">
         <v>153</v>
@@ -6844,18 +6844,18 @@
     </row>
     <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="F114" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G114" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H114" s="34"/>
       <c r="I114" s="35">
@@ -6867,13 +6867,13 @@
       </c>
       <c r="K114" s="32"/>
       <c r="L114" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N114" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P114" s="38">
         <v>158</v>
@@ -6881,18 +6881,18 @@
     </row>
     <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
       <c r="F115" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H115" s="34"/>
       <c r="I115" s="35">
@@ -6904,13 +6904,13 @@
       </c>
       <c r="K115" s="32"/>
       <c r="L115" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N115" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P115" s="38">
         <v>161</v>
@@ -6918,18 +6918,18 @@
     </row>
     <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
       <c r="F116" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H116" s="34"/>
       <c r="I116" s="35">
@@ -6941,13 +6941,13 @@
       </c>
       <c r="K116" s="32"/>
       <c r="L116" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N116" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P116" s="38">
         <v>172</v>
@@ -6955,18 +6955,18 @@
     </row>
     <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
       <c r="F117" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H117" s="34"/>
       <c r="I117" s="35">
@@ -6978,13 +6978,13 @@
       </c>
       <c r="K117" s="32"/>
       <c r="L117" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N117" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P117" s="38">
         <v>183</v>
@@ -6992,18 +6992,18 @@
     </row>
     <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="F118" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H118" s="34"/>
       <c r="I118" s="35">
@@ -7015,13 +7015,13 @@
       </c>
       <c r="K118" s="32"/>
       <c r="L118" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N118" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P118" s="38">
         <v>182</v>
@@ -7029,18 +7029,18 @@
     </row>
     <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B119" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="F119" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H119" s="34"/>
       <c r="I119" s="35">
@@ -7052,13 +7052,13 @@
       </c>
       <c r="K119" s="32"/>
       <c r="L119" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N119" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P119" s="38">
         <v>172</v>
@@ -7066,18 +7066,18 @@
     </row>
     <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B120" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="F120" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H120" s="34"/>
       <c r="I120" s="35">
@@ -7089,13 +7089,13 @@
       </c>
       <c r="K120" s="32"/>
       <c r="L120" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N120" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P120" s="38">
         <v>157</v>
@@ -7103,18 +7103,18 @@
     </row>
     <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
       <c r="F121" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H121" s="34"/>
       <c r="I121" s="35">
@@ -7126,13 +7126,13 @@
       </c>
       <c r="K121" s="32"/>
       <c r="L121" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N121" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P121" s="38">
         <v>170</v>
@@ -7140,18 +7140,18 @@
     </row>
     <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B122" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C122" s="34"/>
       <c r="D122" s="34"/>
       <c r="F122" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H122" s="34"/>
       <c r="I122" s="35">
@@ -7163,13 +7163,13 @@
       </c>
       <c r="K122" s="32"/>
       <c r="L122" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N122" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P122" s="38">
         <v>167</v>
@@ -7177,18 +7177,18 @@
     </row>
     <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
       <c r="F123" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H123" s="34"/>
       <c r="I123" s="35">
@@ -7200,13 +7200,13 @@
       </c>
       <c r="K123" s="32"/>
       <c r="L123" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N123" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P123" s="38">
         <v>158</v>
@@ -7214,18 +7214,18 @@
     </row>
     <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
       <c r="F124" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H124" s="34"/>
       <c r="I124" s="35">
@@ -7237,13 +7237,13 @@
       </c>
       <c r="K124" s="32"/>
       <c r="L124" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N124" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P124" s="38">
         <v>140</v>
@@ -7251,18 +7251,18 @@
     </row>
     <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="F125" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H125" s="34"/>
       <c r="I125" s="35">
@@ -7274,13 +7274,13 @@
       </c>
       <c r="K125" s="32"/>
       <c r="L125" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N125" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P125" s="38">
         <v>125</v>
@@ -7288,18 +7288,18 @@
     </row>
     <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
       <c r="F126" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H126" s="34"/>
       <c r="I126" s="35">
@@ -7311,13 +7311,13 @@
       </c>
       <c r="K126" s="32"/>
       <c r="L126" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N126" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P126" s="38">
         <v>242</v>
@@ -7325,18 +7325,18 @@
     </row>
     <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
       <c r="F127" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H127" s="34"/>
       <c r="I127" s="35">
@@ -7348,13 +7348,13 @@
       </c>
       <c r="K127" s="32"/>
       <c r="L127" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N127" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P127" s="38">
         <v>265</v>
@@ -7362,18 +7362,18 @@
     </row>
     <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C128" s="34"/>
       <c r="D128" s="34"/>
       <c r="F128" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H128" s="34"/>
       <c r="I128" s="35">
@@ -7385,13 +7385,13 @@
       </c>
       <c r="K128" s="32"/>
       <c r="L128" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N128" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P128" s="38">
         <v>335</v>
@@ -7399,18 +7399,18 @@
     </row>
     <row r="129" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B129" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
       <c r="F129" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H129" s="34"/>
       <c r="I129" s="35">
@@ -7422,13 +7422,13 @@
       </c>
       <c r="K129" s="32"/>
       <c r="L129" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N129" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P129" s="38">
         <v>170</v>
@@ -7436,18 +7436,18 @@
     </row>
     <row r="130" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B130" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
       <c r="F130" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H130" s="34"/>
       <c r="I130" s="35">
@@ -7459,13 +7459,13 @@
       </c>
       <c r="K130" s="32"/>
       <c r="L130" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N130" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P130" s="38">
         <v>503</v>
@@ -7473,18 +7473,18 @@
     </row>
     <row r="131" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B131" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C131" s="34"/>
       <c r="D131" s="34"/>
       <c r="F131" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H131" s="34"/>
       <c r="I131" s="35">
@@ -7496,13 +7496,13 @@
       </c>
       <c r="K131" s="32"/>
       <c r="L131" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N131" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P131" s="38">
         <v>555</v>
@@ -7510,18 +7510,18 @@
     </row>
     <row r="132" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C132" s="34"/>
       <c r="D132" s="34"/>
       <c r="F132" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H132" s="34"/>
       <c r="I132" s="35">
@@ -7533,13 +7533,13 @@
       </c>
       <c r="K132" s="32"/>
       <c r="L132" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N132" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P132" s="38">
         <v>548</v>
@@ -7547,18 +7547,18 @@
     </row>
     <row r="133" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B133" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C133" s="34"/>
       <c r="D133" s="34"/>
       <c r="F133" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H133" s="34"/>
       <c r="I133" s="35">
@@ -7570,13 +7570,13 @@
       </c>
       <c r="K133" s="32"/>
       <c r="L133" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N133" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P133" s="38">
         <v>615</v>
@@ -7584,18 +7584,18 @@
     </row>
     <row r="134" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C134" s="34"/>
       <c r="D134" s="34"/>
       <c r="F134" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H134" s="34"/>
       <c r="I134" s="35">
@@ -7607,13 +7607,13 @@
       </c>
       <c r="K134" s="32"/>
       <c r="L134" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N134" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P134" s="38">
         <v>720</v>
@@ -7621,18 +7621,18 @@
     </row>
     <row r="135" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C135" s="34"/>
       <c r="D135" s="34"/>
       <c r="F135" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H135" s="34"/>
       <c r="I135" s="35">
@@ -7644,13 +7644,13 @@
       </c>
       <c r="K135" s="32"/>
       <c r="L135" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N135" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P135" s="38">
         <v>550</v>
@@ -7658,18 +7658,18 @@
     </row>
     <row r="136" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
       <c r="F136" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H136" s="34"/>
       <c r="I136" s="35">
@@ -7681,13 +7681,13 @@
       </c>
       <c r="K136" s="32"/>
       <c r="L136" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N136" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P136" s="38">
         <v>539</v>
@@ -7695,18 +7695,18 @@
     </row>
     <row r="137" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C137" s="34"/>
       <c r="D137" s="34"/>
       <c r="F137" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H137" s="34"/>
       <c r="I137" s="35">
@@ -7718,13 +7718,13 @@
       </c>
       <c r="K137" s="32"/>
       <c r="L137" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N137" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P137" s="38">
         <v>438</v>
@@ -7732,18 +7732,18 @@
     </row>
     <row r="138" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C138" s="34"/>
       <c r="D138" s="34"/>
       <c r="F138" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H138" s="34"/>
       <c r="I138" s="35">
@@ -7755,13 +7755,13 @@
       </c>
       <c r="K138" s="32"/>
       <c r="L138" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N138" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P138" s="38">
         <v>476</v>
@@ -7769,18 +7769,18 @@
     </row>
     <row r="139" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C139" s="34"/>
       <c r="D139" s="34"/>
       <c r="F139" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H139" s="34"/>
       <c r="I139" s="35">
@@ -7792,13 +7792,13 @@
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N139" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P139" s="38">
         <v>587</v>
@@ -7806,18 +7806,18 @@
     </row>
     <row r="140" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C140" s="34"/>
       <c r="D140" s="34"/>
       <c r="F140" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H140" s="34"/>
       <c r="I140" s="35">
@@ -7829,13 +7829,13 @@
       </c>
       <c r="K140" s="32"/>
       <c r="L140" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N140" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P140" s="38">
         <v>558</v>
@@ -7843,18 +7843,18 @@
     </row>
     <row r="141" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
       <c r="F141" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H141" s="34"/>
       <c r="I141" s="35">
@@ -7866,13 +7866,13 @@
       </c>
       <c r="K141" s="32"/>
       <c r="L141" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N141" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P141" s="38">
         <v>510</v>
@@ -7880,18 +7880,18 @@
     </row>
     <row r="142" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C142" s="34"/>
       <c r="D142" s="34"/>
       <c r="F142" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H142" s="34"/>
       <c r="I142" s="35">
@@ -7903,13 +7903,13 @@
       </c>
       <c r="K142" s="32"/>
       <c r="L142" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N142" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P142" s="38">
         <v>775</v>
@@ -7917,18 +7917,18 @@
     </row>
     <row r="143" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C143" s="34"/>
       <c r="D143" s="34"/>
       <c r="F143" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H143" s="34"/>
       <c r="I143" s="35">
@@ -7940,13 +7940,13 @@
       </c>
       <c r="K143" s="32"/>
       <c r="L143" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N143" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P143" s="38">
         <v>140</v>
@@ -7954,18 +7954,18 @@
     </row>
     <row r="144" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C144" s="34"/>
       <c r="D144" s="34"/>
       <c r="F144" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H144" s="34"/>
       <c r="I144" s="35">
@@ -7977,13 +7977,13 @@
       </c>
       <c r="K144" s="32"/>
       <c r="L144" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N144" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P144" s="38">
         <v>410</v>
@@ -7991,18 +7991,18 @@
     </row>
     <row r="145" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C145" s="34"/>
       <c r="D145" s="34"/>
       <c r="F145" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H145" s="34"/>
       <c r="I145" s="35">
@@ -8014,13 +8014,13 @@
       </c>
       <c r="K145" s="32"/>
       <c r="L145" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N145" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P145" s="38">
         <v>510</v>
@@ -8028,18 +8028,18 @@
     </row>
     <row r="146" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
       <c r="F146" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G146" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H146" s="34"/>
       <c r="I146" s="35">
@@ -8051,13 +8051,13 @@
       </c>
       <c r="K146" s="32"/>
       <c r="L146" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N146" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P146" s="38">
         <v>145</v>
@@ -8065,18 +8065,18 @@
     </row>
     <row r="147" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C147" s="34"/>
       <c r="D147" s="34"/>
       <c r="F147" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G147" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H147" s="34"/>
       <c r="I147" s="35">
@@ -8088,13 +8088,13 @@
       </c>
       <c r="K147" s="32"/>
       <c r="L147" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N147" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P147" s="38">
         <v>359</v>
@@ -8102,18 +8102,18 @@
     </row>
     <row r="148" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C148" s="34"/>
       <c r="D148" s="34"/>
       <c r="F148" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H148" s="34"/>
       <c r="I148" s="35">
@@ -8125,13 +8125,13 @@
       </c>
       <c r="K148" s="32"/>
       <c r="L148" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N148" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P148" s="38">
         <v>396</v>
@@ -8139,18 +8139,18 @@
     </row>
     <row r="149" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C149" s="34"/>
       <c r="D149" s="34"/>
       <c r="F149" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H149" s="34"/>
       <c r="I149" s="35">
@@ -8162,13 +8162,13 @@
       </c>
       <c r="K149" s="32"/>
       <c r="L149" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N149" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P149" s="38">
         <v>271</v>
@@ -8176,18 +8176,18 @@
     </row>
     <row r="150" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C150" s="34"/>
       <c r="D150" s="34"/>
       <c r="F150" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H150" s="34"/>
       <c r="I150" s="35">
@@ -8199,13 +8199,13 @@
       </c>
       <c r="K150" s="32"/>
       <c r="L150" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N150" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P150" s="38">
         <v>406</v>
@@ -8213,18 +8213,18 @@
     </row>
     <row r="151" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
       <c r="F151" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H151" s="34"/>
       <c r="I151" s="35">
@@ -8236,13 +8236,13 @@
       </c>
       <c r="K151" s="32"/>
       <c r="L151" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N151" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P151" s="38">
         <v>481</v>
@@ -8250,18 +8250,18 @@
     </row>
     <row r="152" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C152" s="34"/>
       <c r="D152" s="34"/>
       <c r="F152" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H152" s="34"/>
       <c r="I152" s="35">
@@ -8273,13 +8273,13 @@
       </c>
       <c r="K152" s="32"/>
       <c r="L152" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N152" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P152" s="38">
         <v>661</v>
@@ -8287,18 +8287,18 @@
     </row>
     <row r="153" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C153" s="34"/>
       <c r="D153" s="34"/>
       <c r="F153" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H153" s="34"/>
       <c r="I153" s="35">
@@ -8310,13 +8310,13 @@
       </c>
       <c r="K153" s="32"/>
       <c r="L153" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N153" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P153" s="38">
         <v>240</v>
@@ -8324,18 +8324,18 @@
     </row>
     <row r="154" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
       <c r="F154" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H154" s="34"/>
       <c r="I154" s="35">
@@ -8347,13 +8347,13 @@
       </c>
       <c r="K154" s="32"/>
       <c r="L154" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N154" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P154" s="38">
         <v>328</v>
@@ -8361,18 +8361,18 @@
     </row>
     <row r="155" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B155" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C155" s="34"/>
       <c r="D155" s="34"/>
       <c r="F155" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H155" s="34"/>
       <c r="I155" s="35">
@@ -8384,13 +8384,13 @@
       </c>
       <c r="K155" s="32"/>
       <c r="L155" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N155" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P155" s="38">
         <v>379</v>
@@ -8398,18 +8398,18 @@
     </row>
     <row r="156" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B156" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C156" s="34"/>
       <c r="D156" s="34"/>
       <c r="F156" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H156" s="34"/>
       <c r="I156" s="35">
@@ -8421,13 +8421,13 @@
       </c>
       <c r="K156" s="32"/>
       <c r="L156" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N156" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P156" s="38">
         <v>481</v>
@@ -8435,18 +8435,18 @@
     </row>
     <row r="157" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B157" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C157" s="34"/>
       <c r="D157" s="34"/>
       <c r="F157" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H157" s="34"/>
       <c r="I157" s="35">
@@ -8458,13 +8458,13 @@
       </c>
       <c r="K157" s="32"/>
       <c r="L157" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N157" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P157" s="38">
         <v>484</v>
@@ -8472,18 +8472,18 @@
     </row>
     <row r="158" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C158" s="34"/>
       <c r="D158" s="34"/>
       <c r="F158" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H158" s="34"/>
       <c r="I158" s="35">
@@ -8495,13 +8495,13 @@
       </c>
       <c r="K158" s="32"/>
       <c r="L158" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N158" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P158" s="38">
         <v>740</v>
@@ -8509,18 +8509,18 @@
     </row>
     <row r="159" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B159" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C159" s="34"/>
       <c r="D159" s="34"/>
       <c r="F159" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H159" s="34"/>
       <c r="I159" s="35">
@@ -8532,13 +8532,13 @@
       </c>
       <c r="K159" s="32"/>
       <c r="L159" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N159" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P159" s="38">
         <v>169</v>
@@ -8546,18 +8546,18 @@
     </row>
     <row r="160" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C160" s="34"/>
       <c r="D160" s="34"/>
       <c r="F160" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H160" s="34"/>
       <c r="I160" s="35">
@@ -8569,13 +8569,13 @@
       </c>
       <c r="K160" s="32"/>
       <c r="L160" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N160" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P160" s="38">
         <v>200</v>
@@ -8583,18 +8583,18 @@
     </row>
     <row r="161" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B161" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C161" s="34"/>
       <c r="D161" s="34"/>
       <c r="F161" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H161" s="34"/>
       <c r="I161" s="35">
@@ -8606,13 +8606,13 @@
       </c>
       <c r="K161" s="32"/>
       <c r="L161" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N161" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P161" s="38">
         <v>240</v>
@@ -8620,18 +8620,18 @@
     </row>
     <row r="162" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
       <c r="F162" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H162" s="34"/>
       <c r="I162" s="35">
@@ -8643,13 +8643,13 @@
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N162" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P162" s="38">
         <v>291</v>
@@ -8657,18 +8657,18 @@
     </row>
     <row r="163" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B163" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="F163" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H163" s="34"/>
       <c r="I163" s="35">
@@ -8680,13 +8680,13 @@
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N163" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P163" s="38">
         <v>322</v>
@@ -8694,18 +8694,18 @@
     </row>
     <row r="164" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="F164" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H164" s="34"/>
       <c r="I164" s="35">
@@ -8717,13 +8717,13 @@
       </c>
       <c r="K164" s="32"/>
       <c r="L164" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N164" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P164" s="38">
         <v>338</v>
@@ -8731,18 +8731,18 @@
     </row>
     <row r="165" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B165" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="F165" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H165" s="34"/>
       <c r="I165" s="35">
@@ -8754,13 +8754,13 @@
       </c>
       <c r="K165" s="32"/>
       <c r="L165" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N165" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P165" s="38">
         <v>389</v>
@@ -8768,18 +8768,18 @@
     </row>
     <row r="166" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B166" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C166" s="34"/>
       <c r="D166" s="34"/>
       <c r="F166" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H166" s="34"/>
       <c r="I166" s="35">
@@ -8791,13 +8791,13 @@
       </c>
       <c r="K166" s="32"/>
       <c r="L166" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N166" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P166" s="38">
         <v>522</v>
@@ -8805,18 +8805,18 @@
     </row>
     <row r="167" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B167" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C167" s="34"/>
       <c r="D167" s="34"/>
       <c r="F167" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H167" s="34"/>
       <c r="I167" s="35">
@@ -8828,13 +8828,13 @@
       </c>
       <c r="K167" s="32"/>
       <c r="L167" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N167" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P167" s="38">
         <v>572</v>
@@ -8842,18 +8842,18 @@
     </row>
     <row r="168" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B168" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C168" s="34"/>
       <c r="D168" s="34"/>
       <c r="F168" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H168" s="34"/>
       <c r="I168" s="35">
@@ -8865,13 +8865,13 @@
       </c>
       <c r="K168" s="32"/>
       <c r="L168" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N168" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P168" s="38">
         <v>600</v>
@@ -8879,18 +8879,18 @@
     </row>
     <row r="169" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B169" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="F169" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H169" s="34"/>
       <c r="I169" s="35">
@@ -8902,13 +8902,13 @@
       </c>
       <c r="K169" s="32"/>
       <c r="L169" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M169" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N169" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P169" s="38">
         <v>154</v>
@@ -8916,18 +8916,18 @@
     </row>
     <row r="170" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B170" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="F170" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H170" s="34"/>
       <c r="I170" s="35">
@@ -8939,13 +8939,13 @@
       </c>
       <c r="K170" s="32"/>
       <c r="L170" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M170" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N170" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P170" s="38">
         <v>419</v>
@@ -8953,18 +8953,18 @@
     </row>
     <row r="171" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B171" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C171" s="34"/>
       <c r="D171" s="34"/>
       <c r="F171" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H171" s="34"/>
       <c r="I171" s="35">
@@ -8976,13 +8976,13 @@
       </c>
       <c r="K171" s="32"/>
       <c r="L171" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M171" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N171" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P171" s="38">
         <v>764</v>
@@ -8990,18 +8990,18 @@
     </row>
     <row r="172" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C172" s="34"/>
       <c r="D172" s="34"/>
       <c r="F172" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H172" s="34"/>
       <c r="I172" s="35">
@@ -9013,13 +9013,13 @@
       </c>
       <c r="K172" s="32"/>
       <c r="L172" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M172" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N172" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P172" s="38">
         <v>591</v>
@@ -9027,18 +9027,18 @@
     </row>
     <row r="173" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B173" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C173" s="34"/>
       <c r="D173" s="34"/>
       <c r="F173" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H173" s="34"/>
       <c r="I173" s="35">
@@ -9050,13 +9050,13 @@
       </c>
       <c r="K173" s="32"/>
       <c r="L173" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M173" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N173" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P173" s="38">
         <v>701</v>
@@ -9064,18 +9064,18 @@
     </row>
     <row r="174" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B174" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C174" s="34"/>
       <c r="D174" s="34"/>
       <c r="F174" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H174" s="34"/>
       <c r="I174" s="35">
@@ -9087,13 +9087,13 @@
       </c>
       <c r="K174" s="32"/>
       <c r="L174" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M174" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N174" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P174" s="38">
         <v>768</v>
@@ -9101,18 +9101,18 @@
     </row>
     <row r="175" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B175" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C175" s="34"/>
       <c r="D175" s="34"/>
       <c r="F175" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H175" s="34"/>
       <c r="I175" s="35">
@@ -9124,13 +9124,13 @@
       </c>
       <c r="K175" s="32"/>
       <c r="L175" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M175" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N175" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P175" s="38">
         <v>702</v>
@@ -9138,18 +9138,18 @@
     </row>
     <row r="176" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C176" s="34"/>
       <c r="D176" s="34"/>
       <c r="F176" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H176" s="34"/>
       <c r="I176" s="35">
@@ -9161,13 +9161,13 @@
       </c>
       <c r="K176" s="32"/>
       <c r="L176" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M176" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N176" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P176" s="38">
         <v>694</v>
@@ -9175,18 +9175,18 @@
     </row>
     <row r="177" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="36" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B177" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C177" s="34"/>
       <c r="D177" s="34"/>
       <c r="F177" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H177" s="34"/>
       <c r="I177" s="35">
@@ -9198,13 +9198,13 @@
       </c>
       <c r="K177" s="32"/>
       <c r="L177" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M177" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N177" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P177" s="38">
         <v>149</v>
@@ -9212,18 +9212,18 @@
     </row>
     <row r="178" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C178" s="34"/>
       <c r="D178" s="34"/>
       <c r="F178" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H178" s="34"/>
       <c r="I178" s="35">
@@ -9235,13 +9235,13 @@
       </c>
       <c r="K178" s="32"/>
       <c r="L178" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M178" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N178" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P178" s="38">
         <v>229</v>
@@ -9249,18 +9249,18 @@
     </row>
     <row r="179" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="36" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B179" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="F179" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G179" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H179" s="34"/>
       <c r="I179" s="35">
@@ -9272,13 +9272,13 @@
       </c>
       <c r="K179" s="32"/>
       <c r="L179" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M179" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N179" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P179" s="38">
         <v>459</v>
@@ -9286,18 +9286,18 @@
     </row>
     <row r="180" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B180" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C180" s="34"/>
       <c r="D180" s="34"/>
       <c r="F180" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G180" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H180" s="34"/>
       <c r="I180" s="35">
@@ -9309,13 +9309,13 @@
       </c>
       <c r="K180" s="32"/>
       <c r="L180" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M180" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N180" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P180" s="38">
         <v>469</v>
@@ -9323,18 +9323,18 @@
     </row>
     <row r="181" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B181" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C181" s="34"/>
       <c r="D181" s="34"/>
       <c r="F181" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H181" s="34"/>
       <c r="I181" s="35">
@@ -9346,13 +9346,13 @@
       </c>
       <c r="K181" s="32"/>
       <c r="L181" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M181" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N181" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P181" s="38">
         <v>483</v>
@@ -9360,18 +9360,18 @@
     </row>
     <row r="182" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B182" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="F182" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G182" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H182" s="34"/>
       <c r="I182" s="35">
@@ -9383,13 +9383,13 @@
       </c>
       <c r="K182" s="32"/>
       <c r="L182" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M182" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N182" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P182" s="38">
         <v>472</v>
@@ -9397,18 +9397,18 @@
     </row>
     <row r="183" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C183" s="34"/>
       <c r="D183" s="34"/>
       <c r="F183" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G183" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H183" s="34"/>
       <c r="I183" s="35">
@@ -9420,13 +9420,13 @@
       </c>
       <c r="K183" s="32"/>
       <c r="L183" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M183" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N183" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P183" s="38">
         <v>454</v>
@@ -9434,18 +9434,18 @@
     </row>
     <row r="184" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C184" s="34"/>
       <c r="D184" s="34"/>
       <c r="F184" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G184" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H184" s="34"/>
       <c r="I184" s="35">
@@ -9457,13 +9457,13 @@
       </c>
       <c r="K184" s="32"/>
       <c r="L184" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M184" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N184" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P184" s="38">
         <v>441</v>
@@ -9471,18 +9471,18 @@
     </row>
     <row r="185" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B185" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C185" s="34"/>
       <c r="D185" s="34"/>
       <c r="F185" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G185" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H185" s="34"/>
       <c r="I185" s="35">
@@ -9494,13 +9494,13 @@
       </c>
       <c r="K185" s="32"/>
       <c r="L185" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M185" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N185" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P185" s="38">
         <v>495</v>
@@ -9508,18 +9508,18 @@
     </row>
     <row r="186" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B186" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="F186" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G186" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H186" s="34"/>
       <c r="I186" s="35">
@@ -9531,13 +9531,13 @@
       </c>
       <c r="K186" s="32"/>
       <c r="L186" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M186" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N186" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P186" s="38">
         <v>477</v>
@@ -9545,18 +9545,18 @@
     </row>
     <row r="187" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B187" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C187" s="34"/>
       <c r="D187" s="34"/>
       <c r="F187" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G187" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H187" s="34"/>
       <c r="I187" s="35">
@@ -9568,13 +9568,13 @@
       </c>
       <c r="K187" s="32"/>
       <c r="L187" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M187" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N187" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P187" s="38">
         <v>469</v>
@@ -9582,20 +9582,20 @@
     </row>
     <row r="188" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="36" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B188" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C188" s="34"/>
       <c r="D188" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F188" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G188" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H188" s="34"/>
       <c r="I188" s="35">
@@ -9610,13 +9610,13 @@
         <v>121606800</v>
       </c>
       <c r="L188" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M188" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N188" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P188" s="38">
         <v>785.6</v>
@@ -9627,20 +9627,20 @@
     </row>
     <row r="189" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C189" s="34"/>
       <c r="D189" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F189" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G189" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H189" s="34"/>
       <c r="I189" s="35">
@@ -9655,13 +9655,13 @@
         <v>157892700</v>
       </c>
       <c r="L189" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M189" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N189" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P189" s="38">
         <v>771.1</v>
@@ -9672,20 +9672,20 @@
     </row>
     <row r="190" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B190" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C190" s="34"/>
       <c r="D190" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F190" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G190" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H190" s="34"/>
       <c r="I190" s="35">
@@ -9700,13 +9700,13 @@
         <v>99050699.999999985</v>
       </c>
       <c r="L190" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M190" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N190" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P190" s="38">
         <v>783.7</v>
@@ -9717,20 +9717,20 @@
     </row>
     <row r="191" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B191" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C191" s="34"/>
       <c r="D191" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F191" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G191" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H191" s="34"/>
       <c r="I191" s="35">
@@ -9745,13 +9745,13 @@
         <v>125529599.99999999</v>
       </c>
       <c r="L191" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M191" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N191" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P191" s="38">
         <v>771.9</v>
@@ -9762,20 +9762,20 @@
     </row>
     <row r="192" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C192" s="34"/>
       <c r="D192" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F192" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G192" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H192" s="34"/>
       <c r="I192" s="35">
@@ -9790,13 +9790,13 @@
         <v>143182199.99999997</v>
       </c>
       <c r="L192" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M192" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N192" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P192" s="38">
         <v>797.1</v>
@@ -9807,20 +9807,20 @@
     </row>
     <row r="193" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B193" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C193" s="34"/>
       <c r="D193" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F193" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G193" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H193" s="34"/>
       <c r="I193" s="35">
@@ -9835,13 +9835,13 @@
         <v>134355900</v>
       </c>
       <c r="L193" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M193" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N193" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P193" s="38">
         <v>792.2</v>
@@ -9852,20 +9852,20 @@
     </row>
     <row r="194" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B194" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C194" s="34"/>
       <c r="D194" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F194" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G194" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H194" s="34"/>
       <c r="I194" s="35">
@@ -9880,13 +9880,13 @@
         <v>178487400</v>
       </c>
       <c r="L194" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M194" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N194" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P194" s="38">
         <v>804.3</v>
@@ -9897,25 +9897,25 @@
     </row>
     <row r="195" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B195" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C195" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="D195" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="D195" s="34" t="s">
-        <v>448</v>
-      </c>
       <c r="E195" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F195" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G195" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H195" s="34"/>
       <c r="I195" s="35">
@@ -9930,13 +9930,13 @@
         <v>159854100</v>
       </c>
       <c r="L195" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M195" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N195" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P195" s="38">
         <v>815.4</v>
@@ -9947,25 +9947,25 @@
     </row>
     <row r="196" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B196" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C196" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="D196" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="D196" s="34" t="s">
-        <v>448</v>
-      </c>
       <c r="E196" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F196" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H196" s="34"/>
       <c r="I196" s="35">
@@ -9980,13 +9980,13 @@
         <v>230464500</v>
       </c>
       <c r="L196" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M196" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N196" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P196" s="38">
         <v>814.5</v>
@@ -9997,25 +9997,25 @@
     </row>
     <row r="197" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="36" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C197" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="D197" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="D197" s="34" t="s">
-        <v>448</v>
-      </c>
       <c r="E197" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F197" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G197" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H197" s="34"/>
       <c r="I197" s="35">
@@ -10030,13 +10030,13 @@
         <v>167699700</v>
       </c>
       <c r="L197" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M197" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N197" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P197" s="38">
         <v>801.8</v>
@@ -10047,25 +10047,25 @@
     </row>
     <row r="198" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B198" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C198" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="D198" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="D198" s="34" t="s">
-        <v>448</v>
-      </c>
       <c r="E198" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G198" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H198" s="34"/>
       <c r="I198" s="35">
@@ -10080,13 +10080,13 @@
         <v>134355900</v>
       </c>
       <c r="L198" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M198" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N198" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P198" s="38">
         <v>792.2</v>
@@ -10719,11 +10719,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10738,6 +10733,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
